--- a/experiment_results/worst_case/ExamDB/2wise/0.8_worst_case.xlsx
+++ b/experiment_results/worst_case/ExamDB/2wise/0.8_worst_case.xlsx
@@ -594,7 +594,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -626,7 +626,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -649,16 +649,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -690,7 +690,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -754,7 +754,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -786,7 +786,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -818,7 +818,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -850,7 +850,7 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>16</v>
@@ -873,16 +873,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G11">
         <v>22</v>
@@ -914,7 +914,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -937,7 +937,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -946,7 +946,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -978,7 +978,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1033,16 +1033,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>9</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -1074,7 +1074,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1106,7 +1106,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -1138,7 +1138,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -1193,16 +1193,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>17</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -1234,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1266,7 +1266,7 @@
         <v>10</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>10</v>
@@ -1298,7 +1298,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -1321,16 +1321,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>17</v>
@@ -1353,16 +1353,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -1394,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1426,7 +1426,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -1449,16 +1449,16 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>9</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>9</v>
@@ -1490,7 +1490,7 @@
         <v>13</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>13</v>
@@ -1522,7 +1522,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -1554,7 +1554,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1586,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -1609,16 +1609,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34">
         <v>12</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>17</v>
@@ -1650,7 +1650,7 @@
         <v>6</v>
       </c>
       <c r="E35">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G35">
         <v>6</v>
@@ -1673,7 +1673,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -1746,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>6</v>
@@ -1769,16 +1769,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C39">
         <v>8</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>8</v>
@@ -1801,16 +1801,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40">
         <v>7</v>
       </c>
       <c r="D40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E40">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -1842,7 +1842,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -1865,7 +1865,7 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C42">
         <v>10</v>
@@ -1874,7 +1874,7 @@
         <v>10</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>10</v>
@@ -1906,7 +1906,7 @@
         <v>6</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>6</v>
@@ -1938,7 +1938,7 @@
         <v>7</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>7</v>
@@ -1970,7 +1970,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -2002,7 +2002,7 @@
         <v>5</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -2025,16 +2025,16 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C47">
         <v>11</v>
       </c>
       <c r="D47">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>15</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2089,16 +2089,16 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C49">
         <v>5</v>
       </c>
       <c r="D49">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>9</v>
@@ -2121,16 +2121,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C50">
         <v>14</v>
       </c>
       <c r="D50">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>22</v>
@@ -2162,7 +2162,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -2194,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2303,7 +2303,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2326,16 +2326,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2367,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2399,7 +2399,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2431,7 +2431,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2495,7 +2495,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2559,7 +2559,7 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G11">
         <v>21</v>
@@ -2591,7 +2591,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -2623,7 +2623,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -2655,7 +2655,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2719,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2751,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2783,7 +2783,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2815,7 +2815,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2870,16 +2870,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -2911,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2943,7 +2943,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -2975,7 +2975,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -3039,7 +3039,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -3071,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -3103,7 +3103,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -3135,7 +3135,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -3167,7 +3167,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -3199,7 +3199,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3231,7 +3231,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3263,7 +3263,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -3286,16 +3286,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34">
         <v>13</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>17</v>
@@ -3327,7 +3327,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -3359,7 +3359,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3391,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3423,7 +3423,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -3446,16 +3446,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C39">
         <v>8</v>
       </c>
       <c r="D39">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>8</v>
@@ -3478,16 +3478,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40">
         <v>7</v>
       </c>
       <c r="D40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E40">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -3519,7 +3519,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -3551,7 +3551,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -3583,7 +3583,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -3615,7 +3615,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -3647,7 +3647,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -3679,7 +3679,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -3702,16 +3702,16 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C47">
         <v>8</v>
       </c>
       <c r="D47">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>10</v>
@@ -3743,7 +3743,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -3766,16 +3766,16 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C49">
         <v>5</v>
       </c>
       <c r="D49">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>9</v>
@@ -3798,16 +3798,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C50">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D50">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>22</v>
@@ -3839,7 +3839,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -3871,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -3980,7 +3980,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -4003,16 +4003,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -4044,7 +4044,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -4076,7 +4076,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -4108,7 +4108,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -4140,7 +4140,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -4172,7 +4172,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -4204,7 +4204,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -4236,7 +4236,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G11">
         <v>21</v>
@@ -4268,7 +4268,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -4300,7 +4300,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -4332,7 +4332,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -4364,7 +4364,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -4396,7 +4396,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -4428,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -4460,7 +4460,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -4492,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -4547,16 +4547,16 @@
         <v>29</v>
       </c>
       <c r="B21">
+        <v>23</v>
+      </c>
+      <c r="C21">
         <v>21</v>
       </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
       <c r="D21">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -4588,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -4620,7 +4620,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -4652,7 +4652,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -4684,7 +4684,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -4716,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -4748,7 +4748,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -4780,7 +4780,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -4812,7 +4812,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -4844,7 +4844,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -4876,7 +4876,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -4908,7 +4908,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -4940,7 +4940,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -4963,16 +4963,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34">
         <v>16</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>17</v>
@@ -5004,7 +5004,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -5036,7 +5036,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -5068,7 +5068,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -5100,7 +5100,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -5123,16 +5123,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C39">
         <v>8</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>8</v>
@@ -5155,16 +5155,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40">
         <v>7</v>
       </c>
       <c r="D40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E40">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -5196,7 +5196,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -5228,7 +5228,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -5260,7 +5260,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -5292,7 +5292,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -5324,7 +5324,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -5356,7 +5356,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -5379,16 +5379,16 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C47">
         <v>11</v>
       </c>
       <c r="D47">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>10</v>
@@ -5420,7 +5420,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -5443,16 +5443,16 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C49">
         <v>5</v>
       </c>
       <c r="D49">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>9</v>
@@ -5475,16 +5475,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C50">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D50">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>22</v>
@@ -5516,7 +5516,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -5548,7 +5548,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -5657,7 +5657,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -5680,16 +5680,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -5721,7 +5721,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -5753,7 +5753,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -5785,7 +5785,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -5817,7 +5817,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -5849,7 +5849,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -5881,7 +5881,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -5913,7 +5913,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G11">
         <v>21</v>
@@ -5945,7 +5945,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -5977,7 +5977,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -6009,7 +6009,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -6041,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -6073,7 +6073,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -6105,7 +6105,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -6137,7 +6137,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -6224,16 +6224,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D21">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -6265,7 +6265,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -6297,7 +6297,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -6329,7 +6329,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -6361,7 +6361,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -6393,7 +6393,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -6425,7 +6425,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -6457,7 +6457,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -6489,7 +6489,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -6521,7 +6521,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -6553,7 +6553,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -6585,7 +6585,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -6617,7 +6617,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -6640,16 +6640,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D34">
         <v>30</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>171</v>
@@ -6681,7 +6681,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -6713,7 +6713,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -6745,7 +6745,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -6777,7 +6777,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -6800,16 +6800,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D39">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -6832,16 +6832,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40">
         <v>7</v>
       </c>
       <c r="D40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E40">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -6873,7 +6873,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -6905,7 +6905,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -6937,7 +6937,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -6969,7 +6969,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -7001,7 +7001,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -7033,7 +7033,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -7056,16 +7056,16 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D47">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>16</v>
@@ -7097,7 +7097,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -7120,16 +7120,16 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D49">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>9</v>
@@ -7152,16 +7152,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D50">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>22</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -7225,7 +7225,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -7302,7 +7302,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -7334,7 +7334,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -7357,16 +7357,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -7398,7 +7398,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -7430,7 +7430,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -7462,7 +7462,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -7494,7 +7494,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -7526,7 +7526,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -7558,7 +7558,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -7581,16 +7581,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>18</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G11">
         <v>21</v>
@@ -7622,7 +7622,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -7654,7 +7654,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -7686,7 +7686,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -7718,7 +7718,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -7750,7 +7750,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -7782,7 +7782,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -7814,7 +7814,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -7846,7 +7846,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -7901,16 +7901,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C21">
         <v>21</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -7974,7 +7974,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -8006,7 +8006,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -8038,7 +8038,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -8070,7 +8070,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -8102,7 +8102,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -8134,7 +8134,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -8166,7 +8166,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -8198,7 +8198,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -8230,7 +8230,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -8262,7 +8262,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -8294,7 +8294,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -8317,16 +8317,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C34">
         <v>21</v>
       </c>
       <c r="D34">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>171</v>
@@ -8358,7 +8358,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -8390,7 +8390,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -8422,7 +8422,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -8454,7 +8454,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -8477,16 +8477,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C39">
         <v>16</v>
       </c>
       <c r="D39">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -8509,16 +8509,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40">
         <v>7</v>
       </c>
       <c r="D40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E40">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -8550,7 +8550,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -8582,7 +8582,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -8646,7 +8646,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -8678,7 +8678,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -8710,7 +8710,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -8733,16 +8733,16 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C47">
         <v>14</v>
       </c>
       <c r="D47">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>16</v>
@@ -8774,7 +8774,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -8797,16 +8797,16 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C49">
         <v>14</v>
       </c>
       <c r="D49">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>9</v>
@@ -8829,16 +8829,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C50">
         <v>26</v>
       </c>
       <c r="D50">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>22</v>
@@ -8870,7 +8870,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -8902,7 +8902,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -8979,7 +8979,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -9011,7 +9011,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -9034,16 +9034,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -9075,7 +9075,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -9107,7 +9107,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -9139,7 +9139,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -9171,7 +9171,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -9203,7 +9203,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -9235,7 +9235,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -9267,7 +9267,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -9299,7 +9299,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -9331,7 +9331,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -9363,7 +9363,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -9395,7 +9395,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -9427,7 +9427,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -9459,7 +9459,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -9491,7 +9491,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -9523,7 +9523,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -9578,16 +9578,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>17</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>23</v>
@@ -9619,7 +9619,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -9651,7 +9651,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -9683,7 +9683,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -9715,7 +9715,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -9747,7 +9747,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -9779,7 +9779,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -9811,7 +9811,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -9843,7 +9843,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -9875,7 +9875,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -9907,7 +9907,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -9939,7 +9939,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -9971,7 +9971,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -9994,16 +9994,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34">
         <v>12</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>17</v>
@@ -10035,7 +10035,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -10067,7 +10067,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -10099,7 +10099,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -10131,7 +10131,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -10163,7 +10163,7 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>5</v>
@@ -10186,16 +10186,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40">
         <v>7</v>
       </c>
       <c r="D40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E40">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -10227,7 +10227,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -10259,7 +10259,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -10291,7 +10291,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -10323,7 +10323,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -10355,7 +10355,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -10387,7 +10387,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -10410,16 +10410,16 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C47">
         <v>8</v>
       </c>
       <c r="D47">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>6</v>
@@ -10451,7 +10451,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -10483,7 +10483,7 @@
         <v>4</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -10506,16 +10506,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C50">
         <v>14</v>
       </c>
       <c r="D50">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>22</v>
@@ -10547,7 +10547,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -10579,7 +10579,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -10656,7 +10656,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -10688,7 +10688,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -10720,7 +10720,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -10752,7 +10752,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -10775,16 +10775,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>16</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>48</v>
@@ -10816,7 +10816,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -10848,7 +10848,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -10880,7 +10880,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -10912,7 +10912,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -10944,7 +10944,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -10976,7 +10976,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -11008,7 +11008,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -11040,7 +11040,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -11072,7 +11072,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -11104,7 +11104,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -11168,7 +11168,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -11200,7 +11200,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -11255,16 +11255,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>17</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>17</v>
@@ -11296,7 +11296,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -11328,7 +11328,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -11360,7 +11360,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -11392,7 +11392,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -11424,7 +11424,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -11488,7 +11488,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -11520,7 +11520,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -11552,7 +11552,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -11584,7 +11584,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -11616,7 +11616,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -11648,7 +11648,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -11671,16 +11671,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34">
         <v>12</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>17</v>
@@ -11712,7 +11712,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -11744,7 +11744,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -11776,7 +11776,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -11808,7 +11808,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -11840,7 +11840,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -11872,7 +11872,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -11904,7 +11904,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -11936,7 +11936,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -11968,7 +11968,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -12000,7 +12000,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -12032,7 +12032,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -12064,7 +12064,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -12096,7 +12096,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -12128,7 +12128,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -12160,7 +12160,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -12183,16 +12183,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C50">
         <v>14</v>
       </c>
       <c r="D50">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>16</v>
@@ -12215,16 +12215,16 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C51">
         <v>22</v>
       </c>
       <c r="D51">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E51">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>47</v>
@@ -12256,7 +12256,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -12333,7 +12333,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -12365,7 +12365,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -12388,16 +12388,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -12429,7 +12429,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -12461,7 +12461,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -12493,7 +12493,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -12525,7 +12525,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -12557,7 +12557,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -12589,7 +12589,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -12621,7 +12621,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -12653,7 +12653,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -12685,7 +12685,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -12717,7 +12717,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -12749,7 +12749,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -12781,7 +12781,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -12813,7 +12813,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -12845,7 +12845,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -12932,16 +12932,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>17</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>23</v>
@@ -12973,7 +12973,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -13037,7 +13037,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -13069,7 +13069,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -13101,7 +13101,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -13133,7 +13133,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -13165,7 +13165,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -13197,7 +13197,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -13229,7 +13229,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -13261,7 +13261,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -13293,7 +13293,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -13325,7 +13325,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -13348,16 +13348,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34">
         <v>12</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>17</v>
@@ -13389,7 +13389,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -13421,7 +13421,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -13453,7 +13453,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -13485,7 +13485,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -13517,7 +13517,7 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>5</v>
@@ -13540,16 +13540,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40">
         <v>7</v>
       </c>
       <c r="D40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E40">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -13581,7 +13581,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -13613,7 +13613,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -13645,7 +13645,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -13677,7 +13677,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -13709,7 +13709,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -13741,7 +13741,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -13764,16 +13764,16 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C47">
         <v>6</v>
       </c>
       <c r="D47">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>6</v>
@@ -13805,7 +13805,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -13837,7 +13837,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -13860,16 +13860,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C50">
         <v>14</v>
       </c>
       <c r="D50">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>22</v>
@@ -13901,7 +13901,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -13933,7 +13933,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -14010,7 +14010,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -14042,7 +14042,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -14074,7 +14074,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -14106,7 +14106,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -14129,16 +14129,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>48</v>
@@ -14170,7 +14170,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -14202,7 +14202,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -14234,7 +14234,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -14266,7 +14266,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -14330,7 +14330,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -14362,7 +14362,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -14394,7 +14394,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -14426,7 +14426,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -14458,7 +14458,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -14490,7 +14490,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -14522,7 +14522,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -14554,7 +14554,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -14609,16 +14609,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>17</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>17</v>
@@ -14650,7 +14650,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -14682,7 +14682,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -14714,7 +14714,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -14746,7 +14746,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -14778,7 +14778,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -14810,7 +14810,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -14842,7 +14842,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -14874,7 +14874,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -14906,7 +14906,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -14938,7 +14938,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -14970,7 +14970,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -15002,7 +15002,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -15025,16 +15025,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34">
         <v>12</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>17</v>
@@ -15066,7 +15066,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -15098,7 +15098,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -15130,7 +15130,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -15162,7 +15162,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -15194,7 +15194,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -15226,7 +15226,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -15258,7 +15258,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -15290,7 +15290,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -15322,7 +15322,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -15354,7 +15354,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -15386,7 +15386,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -15418,7 +15418,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -15441,16 +15441,16 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -15482,7 +15482,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -15514,7 +15514,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -15537,16 +15537,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C50">
         <v>14</v>
       </c>
       <c r="D50">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>16</v>
@@ -15569,16 +15569,16 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C51">
         <v>22</v>
       </c>
       <c r="D51">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E51">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>47</v>
@@ -15610,7 +15610,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -15687,7 +15687,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -15719,7 +15719,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -15742,16 +15742,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -15783,7 +15783,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -15815,7 +15815,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -15847,7 +15847,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -15879,7 +15879,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -15911,7 +15911,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -15943,7 +15943,7 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>16</v>
@@ -15966,16 +15966,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G11">
         <v>22</v>
@@ -16007,7 +16007,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -16030,7 +16030,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -16039,7 +16039,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -16071,7 +16071,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -16103,7 +16103,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -16126,16 +16126,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>9</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -16167,7 +16167,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -16199,7 +16199,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -16231,7 +16231,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -16286,16 +16286,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -16318,16 +16318,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -16359,7 +16359,7 @@
         <v>10</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>10</v>
@@ -16391,7 +16391,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -16414,16 +16414,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>17</v>
@@ -16446,16 +16446,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -16487,7 +16487,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -16519,7 +16519,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -16542,16 +16542,16 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>9</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>9</v>
@@ -16583,7 +16583,7 @@
         <v>13</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>13</v>
@@ -16615,7 +16615,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -16647,7 +16647,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -16679,7 +16679,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -16702,16 +16702,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34">
         <v>13</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>17</v>
@@ -16743,7 +16743,7 @@
         <v>6</v>
       </c>
       <c r="E35">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G35">
         <v>6</v>
@@ -16766,7 +16766,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -16775,7 +16775,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -16807,7 +16807,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -16839,7 +16839,7 @@
         <v>6</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>6</v>
@@ -16862,16 +16862,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C39">
         <v>8</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>8</v>
@@ -16894,16 +16894,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40">
         <v>7</v>
       </c>
       <c r="D40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E40">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -16935,7 +16935,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -16958,7 +16958,7 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C42">
         <v>10</v>
@@ -16967,7 +16967,7 @@
         <v>10</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>10</v>
@@ -16999,7 +16999,7 @@
         <v>6</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>6</v>
@@ -17031,7 +17031,7 @@
         <v>7</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>7</v>
@@ -17063,7 +17063,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -17095,7 +17095,7 @@
         <v>5</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -17118,16 +17118,16 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C47">
         <v>11</v>
       </c>
       <c r="D47">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>15</v>
@@ -17159,7 +17159,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -17182,16 +17182,16 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C49">
         <v>5</v>
       </c>
       <c r="D49">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>9</v>
@@ -17214,16 +17214,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C50">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D50">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>22</v>
@@ -17255,7 +17255,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -17287,7 +17287,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -17355,7 +17355,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -17364,7 +17364,7 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -17387,7 +17387,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -17396,7 +17396,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -17419,7 +17419,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -17428,7 +17428,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -17451,7 +17451,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>22</v>
@@ -17460,7 +17460,7 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -17483,7 +17483,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -17492,7 +17492,7 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -17515,7 +17515,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -17524,7 +17524,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -17547,7 +17547,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -17556,7 +17556,7 @@
         <v>12</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -17579,7 +17579,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -17588,7 +17588,7 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -17611,7 +17611,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -17620,7 +17620,7 @@
         <v>7</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -17643,7 +17643,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -17652,7 +17652,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -17675,7 +17675,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -17684,7 +17684,7 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -17707,7 +17707,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -17716,7 +17716,7 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -17739,7 +17739,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>19</v>
@@ -17748,7 +17748,7 @@
         <v>19</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -17771,7 +17771,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -17780,7 +17780,7 @@
         <v>8</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -17803,7 +17803,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -17812,7 +17812,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -17835,7 +17835,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -17844,7 +17844,7 @@
         <v>16</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -17867,7 +17867,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -17876,7 +17876,7 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -17899,7 +17899,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -17908,7 +17908,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -17963,7 +17963,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>18</v>
@@ -17972,7 +17972,7 @@
         <v>18</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>23</v>
@@ -17995,7 +17995,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -18004,7 +18004,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -18027,7 +18027,7 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -18036,7 +18036,7 @@
         <v>8</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -18068,7 +18068,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -18091,7 +18091,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -18100,7 +18100,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -18123,7 +18123,7 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -18132,7 +18132,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -18155,16 +18155,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -18187,7 +18187,7 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -18196,7 +18196,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -18219,7 +18219,7 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -18228,7 +18228,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -18251,7 +18251,7 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C30">
         <v>9</v>
@@ -18260,7 +18260,7 @@
         <v>9</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>11</v>
@@ -18283,7 +18283,7 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C31">
         <v>16</v>
@@ -18292,7 +18292,7 @@
         <v>16</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -18315,7 +18315,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C32">
         <v>8</v>
@@ -18324,7 +18324,7 @@
         <v>8</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -18347,7 +18347,7 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C33">
         <v>22</v>
@@ -18356,7 +18356,7 @@
         <v>22</v>
       </c>
       <c r="E33">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -18379,7 +18379,7 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C34">
         <v>19</v>
@@ -18388,7 +18388,7 @@
         <v>19</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>16</v>
@@ -18411,7 +18411,7 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -18420,7 +18420,7 @@
         <v>6</v>
       </c>
       <c r="E35">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -18443,7 +18443,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C36">
         <v>8</v>
@@ -18452,7 +18452,7 @@
         <v>8</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -18475,7 +18475,7 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -18484,7 +18484,7 @@
         <v>3</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -18507,7 +18507,7 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -18516,7 +18516,7 @@
         <v>5</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -18539,7 +18539,7 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C39">
         <v>10</v>
@@ -18548,7 +18548,7 @@
         <v>10</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>5</v>
@@ -18571,7 +18571,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C40">
         <v>13</v>
@@ -18580,7 +18580,7 @@
         <v>13</v>
       </c>
       <c r="E40">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -18603,7 +18603,7 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C41">
         <v>8</v>
@@ -18612,7 +18612,7 @@
         <v>8</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -18635,7 +18635,7 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C42">
         <v>9</v>
@@ -18644,7 +18644,7 @@
         <v>9</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -18667,7 +18667,7 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -18676,7 +18676,7 @@
         <v>4</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>5</v>
@@ -18699,7 +18699,7 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C44">
         <v>16</v>
@@ -18708,7 +18708,7 @@
         <v>16</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>6</v>
@@ -18731,7 +18731,7 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -18740,7 +18740,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -18763,7 +18763,7 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C46">
         <v>17</v>
@@ -18772,7 +18772,7 @@
         <v>17</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -18795,7 +18795,7 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -18804,7 +18804,7 @@
         <v>4</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>5</v>
@@ -18827,7 +18827,7 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -18836,7 +18836,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -18859,7 +18859,7 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -18868,7 +18868,7 @@
         <v>4</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -18891,7 +18891,7 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C50">
         <v>16</v>
@@ -18900,7 +18900,7 @@
         <v>16</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>22</v>
@@ -18923,7 +18923,7 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C51">
         <v>22</v>
@@ -18932,7 +18932,7 @@
         <v>22</v>
       </c>
       <c r="E51">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>8</v>
@@ -18955,7 +18955,7 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -18964,7 +18964,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -19032,7 +19032,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>18</v>
@@ -19041,7 +19041,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -19064,7 +19064,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -19073,7 +19073,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -19096,7 +19096,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -19105,7 +19105,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -19128,7 +19128,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>21</v>
@@ -19137,7 +19137,7 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>46</v>
@@ -19160,16 +19160,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>21</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>48</v>
@@ -19192,7 +19192,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -19201,7 +19201,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>24</v>
@@ -19224,7 +19224,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -19233,7 +19233,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -19256,7 +19256,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -19265,7 +19265,7 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>25</v>
@@ -19288,7 +19288,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -19297,7 +19297,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -19320,7 +19320,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>19</v>
@@ -19329,7 +19329,7 @@
         <v>19</v>
       </c>
       <c r="E11">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G11">
         <v>8</v>
@@ -19352,7 +19352,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -19361,7 +19361,7 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>14</v>
@@ -19384,7 +19384,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -19393,7 +19393,7 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>14</v>
@@ -19416,7 +19416,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>14</v>
@@ -19425,7 +19425,7 @@
         <v>14</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>32</v>
@@ -19448,7 +19448,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -19457,7 +19457,7 @@
         <v>8</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>32</v>
@@ -19480,7 +19480,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -19489,7 +19489,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -19512,7 +19512,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -19521,7 +19521,7 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>47</v>
@@ -19544,7 +19544,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -19553,7 +19553,7 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>25</v>
@@ -19576,7 +19576,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -19585,7 +19585,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>17</v>
@@ -19640,7 +19640,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>14</v>
@@ -19649,7 +19649,7 @@
         <v>14</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>31</v>
@@ -19672,7 +19672,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -19681,7 +19681,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G22">
         <v>15</v>
@@ -19704,7 +19704,7 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -19713,7 +19713,7 @@
         <v>4</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>14</v>
@@ -19745,7 +19745,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>45</v>
@@ -19768,7 +19768,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -19777,7 +19777,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -19800,7 +19800,7 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -19809,7 +19809,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G26">
         <v>7</v>
@@ -19832,16 +19832,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>16</v>
@@ -19864,7 +19864,7 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -19873,7 +19873,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>14</v>
@@ -19896,7 +19896,7 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -19905,7 +19905,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>31</v>
@@ -19928,7 +19928,7 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -19937,7 +19937,7 @@
         <v>4</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -19960,7 +19960,7 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C31">
         <v>16</v>
@@ -19969,7 +19969,7 @@
         <v>16</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>48</v>
@@ -19992,7 +19992,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C32">
         <v>8</v>
@@ -20001,7 +20001,7 @@
         <v>8</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>30</v>
@@ -20024,7 +20024,7 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C33">
         <v>22</v>
@@ -20033,7 +20033,7 @@
         <v>22</v>
       </c>
       <c r="E33">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>55</v>
@@ -20056,7 +20056,7 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C34">
         <v>19</v>
@@ -20065,7 +20065,7 @@
         <v>19</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>51</v>
@@ -20088,7 +20088,7 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -20097,7 +20097,7 @@
         <v>6</v>
       </c>
       <c r="E35">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G35">
         <v>15</v>
@@ -20120,7 +20120,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C36">
         <v>8</v>
@@ -20129,7 +20129,7 @@
         <v>8</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>24</v>
@@ -20152,7 +20152,7 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -20161,7 +20161,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>16</v>
@@ -20184,7 +20184,7 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -20193,7 +20193,7 @@
         <v>5</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>15</v>
@@ -20216,7 +20216,7 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C39">
         <v>10</v>
@@ -20225,7 +20225,7 @@
         <v>10</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>21</v>
@@ -20248,7 +20248,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C40">
         <v>13</v>
@@ -20257,7 +20257,7 @@
         <v>13</v>
       </c>
       <c r="E40">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G40">
         <v>37</v>
@@ -20280,7 +20280,7 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C41">
         <v>8</v>
@@ -20289,7 +20289,7 @@
         <v>8</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>25</v>
@@ -20312,7 +20312,7 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -20321,7 +20321,7 @@
         <v>5</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>14</v>
@@ -20344,7 +20344,7 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -20353,7 +20353,7 @@
         <v>4</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>14</v>
@@ -20376,7 +20376,7 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -20385,7 +20385,7 @@
         <v>5</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>15</v>
@@ -20408,7 +20408,7 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -20417,7 +20417,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G45">
         <v>14</v>
@@ -20440,7 +20440,7 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C46">
         <v>13</v>
@@ -20449,7 +20449,7 @@
         <v>14</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>31</v>
@@ -20472,7 +20472,7 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -20481,7 +20481,7 @@
         <v>4</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>14</v>
@@ -20504,7 +20504,7 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -20513,7 +20513,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>24</v>
@@ -20536,7 +20536,7 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -20545,7 +20545,7 @@
         <v>4</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>14</v>
@@ -20568,7 +20568,7 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C50">
         <v>13</v>
@@ -20577,7 +20577,7 @@
         <v>13</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>44</v>
@@ -20600,16 +20600,16 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C51">
         <v>33</v>
       </c>
       <c r="D51">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E51">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>66</v>
@@ -20632,7 +20632,7 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -20641,7 +20641,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>17</v>
@@ -20718,7 +20718,7 @@
         <v>6</v>
       </c>
       <c r="E2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G2">
         <v>9</v>
@@ -20750,7 +20750,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -20773,16 +20773,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>22</v>
@@ -20814,7 +20814,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -20846,7 +20846,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -20878,7 +20878,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -20910,7 +20910,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -20942,7 +20942,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -20974,7 +20974,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -20997,16 +20997,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C11">
         <v>53</v>
       </c>
       <c r="D11">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E11">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G11">
         <v>195</v>
@@ -21038,7 +21038,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -21070,7 +21070,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -21102,7 +21102,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -21134,7 +21134,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -21166,7 +21166,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -21198,7 +21198,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -21230,7 +21230,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -21262,7 +21262,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>6</v>
@@ -21317,16 +21317,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>26</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>181</v>
@@ -21349,16 +21349,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C22">
         <v>40</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E22">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G22">
         <v>95</v>
@@ -21390,7 +21390,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -21422,7 +21422,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>117</v>
@@ -21454,7 +21454,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -21477,16 +21477,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G26">
         <v>27</v>
@@ -21518,7 +21518,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -21550,7 +21550,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -21573,16 +21573,16 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>21</v>
       </c>
       <c r="D29">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>34</v>
@@ -21614,7 +21614,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -21637,16 +21637,16 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <v>6</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>26</v>
@@ -21669,7 +21669,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -21678,7 +21678,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>8</v>
@@ -21701,16 +21701,16 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C33">
         <v>10</v>
       </c>
       <c r="D33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E33">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>23</v>
@@ -21733,16 +21733,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C34">
         <v>21</v>
       </c>
       <c r="D34">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>175</v>
@@ -21774,7 +21774,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -21806,7 +21806,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -21838,7 +21838,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -21870,7 +21870,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -21893,16 +21893,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>16</v>
       </c>
       <c r="D39">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>169</v>
@@ -21925,16 +21925,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C40">
         <v>15</v>
       </c>
       <c r="D40">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E40">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G40">
         <v>24</v>
@@ -21966,7 +21966,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -21998,7 +21998,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -22030,7 +22030,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -22062,7 +22062,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -22094,7 +22094,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -22126,7 +22126,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -22149,16 +22149,16 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C47">
         <v>18</v>
       </c>
       <c r="D47">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>169</v>
@@ -22190,7 +22190,7 @@
         <v>3</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>4</v>
@@ -22213,16 +22213,16 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C49">
         <v>14</v>
       </c>
       <c r="D49">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>165</v>
@@ -22245,16 +22245,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C50">
         <v>26</v>
       </c>
       <c r="D50">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>181</v>
@@ -22286,7 +22286,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -22309,7 +22309,7 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -22318,7 +22318,7 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>8</v>
@@ -22395,7 +22395,7 @@
         <v>6</v>
       </c>
       <c r="E2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G2">
         <v>9</v>
@@ -22427,7 +22427,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -22450,16 +22450,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>22</v>
@@ -22491,7 +22491,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -22523,7 +22523,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -22555,7 +22555,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -22587,7 +22587,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -22619,7 +22619,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -22651,7 +22651,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -22674,16 +22674,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C11">
         <v>52</v>
       </c>
       <c r="D11">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E11">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G11">
         <v>195</v>
@@ -22715,7 +22715,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -22747,7 +22747,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -22779,7 +22779,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -22811,7 +22811,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -22843,7 +22843,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -22875,7 +22875,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -22907,7 +22907,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -22939,7 +22939,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>6</v>
@@ -22994,16 +22994,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>27</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>181</v>
@@ -23026,16 +23026,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C22">
         <v>40</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E22">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G22">
         <v>95</v>
@@ -23067,7 +23067,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -23099,7 +23099,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>117</v>
@@ -23131,7 +23131,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -23154,16 +23154,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G26">
         <v>27</v>
@@ -23195,7 +23195,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -23227,7 +23227,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -23250,16 +23250,16 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>21</v>
       </c>
       <c r="D29">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>34</v>
@@ -23291,7 +23291,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -23314,16 +23314,16 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <v>6</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>26</v>
@@ -23346,7 +23346,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -23355,7 +23355,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>8</v>
@@ -23378,16 +23378,16 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C33">
         <v>10</v>
       </c>
       <c r="D33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E33">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>23</v>
@@ -23410,16 +23410,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C34">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>175</v>
@@ -23451,7 +23451,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -23483,7 +23483,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -23515,7 +23515,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -23547,7 +23547,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -23570,16 +23570,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>16</v>
       </c>
       <c r="D39">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>169</v>
@@ -23602,16 +23602,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C40">
         <v>15</v>
       </c>
       <c r="D40">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E40">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G40">
         <v>24</v>
@@ -23643,7 +23643,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -23675,7 +23675,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -23707,7 +23707,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -23739,7 +23739,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -23771,7 +23771,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -23803,7 +23803,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -23826,16 +23826,16 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C47">
         <v>18</v>
       </c>
       <c r="D47">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>169</v>
@@ -23867,7 +23867,7 @@
         <v>3</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>4</v>
@@ -23890,16 +23890,16 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C49">
         <v>14</v>
       </c>
       <c r="D49">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>165</v>
@@ -23922,16 +23922,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C50">
         <v>27</v>
       </c>
       <c r="D50">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>181</v>
@@ -23963,7 +23963,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -23986,7 +23986,7 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -23995,7 +23995,7 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>8</v>
@@ -24072,7 +24072,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -24104,7 +24104,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -24136,7 +24136,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -24168,7 +24168,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -24191,16 +24191,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>43</v>
@@ -24232,7 +24232,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -24264,7 +24264,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -24296,7 +24296,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -24328,7 +24328,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -24360,7 +24360,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -24392,7 +24392,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -24424,7 +24424,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -24456,7 +24456,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -24488,7 +24488,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -24520,7 +24520,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -24552,7 +24552,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -24584,7 +24584,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -24616,7 +24616,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -24671,16 +24671,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>17</v>
       </c>
       <c r="D21">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>17</v>
@@ -24712,7 +24712,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -24744,7 +24744,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -24776,7 +24776,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -24808,7 +24808,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -24840,7 +24840,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -24872,7 +24872,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -24904,7 +24904,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -24936,7 +24936,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -24968,7 +24968,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -25000,7 +25000,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -25032,7 +25032,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -25064,7 +25064,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -25087,16 +25087,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C34">
         <v>12</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>17</v>
@@ -25128,7 +25128,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -25160,7 +25160,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -25192,7 +25192,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -25224,7 +25224,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -25256,7 +25256,7 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -25288,7 +25288,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -25320,7 +25320,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -25352,7 +25352,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -25384,7 +25384,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -25416,7 +25416,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -25448,7 +25448,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -25480,7 +25480,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -25503,16 +25503,16 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -25544,7 +25544,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -25576,7 +25576,7 @@
         <v>4</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -25599,16 +25599,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C50">
         <v>14</v>
       </c>
       <c r="D50">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>16</v>
@@ -25631,16 +25631,16 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C51">
         <v>22</v>
       </c>
       <c r="D51">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E51">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>42</v>
@@ -25672,7 +25672,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>2</v>

--- a/experiment_results/worst_case/ExamDB/2wise/0.8_worst_case.xlsx
+++ b/experiment_results/worst_case/ExamDB/2wise/0.8_worst_case.xlsx
@@ -594,7 +594,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -626,7 +626,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -690,7 +690,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -818,7 +818,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -873,16 +873,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G11">
         <v>22</v>
@@ -914,7 +914,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -937,7 +937,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -946,7 +946,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1033,16 +1033,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>9</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -1234,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1266,7 +1266,7 @@
         <v>10</v>
       </c>
       <c r="E23">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>10</v>
@@ -1321,16 +1321,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>17</v>
@@ -1353,16 +1353,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -1449,16 +1449,16 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>9</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <v>9</v>
@@ -1554,7 +1554,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1586,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -1650,7 +1650,7 @@
         <v>6</v>
       </c>
       <c r="E35">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G35">
         <v>6</v>
@@ -1673,7 +1673,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -1746,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <v>6</v>
@@ -1801,16 +1801,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40">
         <v>7</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -1842,7 +1842,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -1865,7 +1865,7 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42">
         <v>10</v>
@@ -1874,7 +1874,7 @@
         <v>10</v>
       </c>
       <c r="E42">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>10</v>
@@ -1970,7 +1970,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2162,7 +2162,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -2194,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2303,7 +2303,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2367,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2495,7 +2495,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -2559,7 +2559,7 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G11">
         <v>21</v>
@@ -2591,7 +2591,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -2623,7 +2623,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2719,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2911,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2943,7 +2943,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -3039,7 +3039,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -3135,7 +3135,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -3231,7 +3231,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3263,7 +3263,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -3327,7 +3327,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -3359,7 +3359,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3423,7 +3423,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -3478,16 +3478,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40">
         <v>7</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -3519,7 +3519,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -3551,7 +3551,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -3647,7 +3647,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -3743,7 +3743,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -3839,7 +3839,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -3871,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -3980,7 +3980,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -4044,7 +4044,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -4172,7 +4172,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -4236,7 +4236,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G11">
         <v>21</v>
@@ -4268,7 +4268,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -4300,7 +4300,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -4364,7 +4364,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -4396,7 +4396,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -4588,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -4620,7 +4620,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -4684,7 +4684,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -4716,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -4812,7 +4812,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -4908,7 +4908,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -4940,7 +4940,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -5004,7 +5004,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -5036,7 +5036,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -5100,7 +5100,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -5155,16 +5155,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40">
         <v>7</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -5196,7 +5196,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -5228,7 +5228,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -5324,7 +5324,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -5420,7 +5420,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -5516,7 +5516,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -5548,7 +5548,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -5657,7 +5657,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -5721,7 +5721,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -5849,7 +5849,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -5913,7 +5913,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G11">
         <v>21</v>
@@ -5945,7 +5945,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -5977,7 +5977,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -6041,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -6073,7 +6073,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -6265,7 +6265,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -6297,7 +6297,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -6361,7 +6361,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -6393,7 +6393,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -6489,7 +6489,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -6585,7 +6585,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -6617,7 +6617,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -6681,7 +6681,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -6713,7 +6713,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -6777,7 +6777,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -6832,16 +6832,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40">
         <v>7</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -6873,7 +6873,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -6905,7 +6905,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -7001,7 +7001,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -7097,7 +7097,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -7225,7 +7225,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -7302,7 +7302,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -7334,7 +7334,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -7398,7 +7398,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -7526,7 +7526,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -7581,16 +7581,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>18</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G11">
         <v>21</v>
@@ -7622,7 +7622,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -7654,7 +7654,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -7718,7 +7718,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -7750,7 +7750,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -7974,7 +7974,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -8038,7 +8038,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -8070,7 +8070,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -8166,7 +8166,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -8262,7 +8262,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -8294,7 +8294,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -8358,7 +8358,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -8390,7 +8390,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -8454,7 +8454,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -8509,16 +8509,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40">
         <v>7</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -8550,7 +8550,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -8582,7 +8582,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -8678,7 +8678,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -8774,7 +8774,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -8870,7 +8870,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -8902,7 +8902,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -8979,7 +8979,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -9011,7 +9011,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -9075,7 +9075,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -9203,7 +9203,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -9267,7 +9267,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -9299,7 +9299,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -9331,7 +9331,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -9395,7 +9395,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -9427,7 +9427,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -9619,7 +9619,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -9651,7 +9651,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -9715,7 +9715,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -9747,7 +9747,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -9843,7 +9843,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -9939,7 +9939,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -9971,7 +9971,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -10035,7 +10035,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -10067,7 +10067,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -10131,7 +10131,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -10186,16 +10186,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40">
         <v>7</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -10227,7 +10227,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -10259,7 +10259,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -10355,7 +10355,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -10451,7 +10451,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -10547,7 +10547,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -10579,7 +10579,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -10656,7 +10656,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -10688,7 +10688,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -10752,7 +10752,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -10880,7 +10880,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -10944,7 +10944,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -10976,7 +10976,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -11008,7 +11008,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -11072,7 +11072,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -11104,7 +11104,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -11296,7 +11296,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -11328,7 +11328,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -11392,7 +11392,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -11424,7 +11424,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -11520,7 +11520,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -11616,7 +11616,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -11648,7 +11648,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -11712,7 +11712,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -11744,7 +11744,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -11808,7 +11808,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -11872,7 +11872,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -11904,7 +11904,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -11936,7 +11936,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -12032,7 +12032,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -12128,7 +12128,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -12215,16 +12215,16 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>22</v>
       </c>
       <c r="D51">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E51">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <v>47</v>
@@ -12256,7 +12256,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -12333,7 +12333,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -12365,7 +12365,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -12429,7 +12429,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -12557,7 +12557,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -12621,7 +12621,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -12653,7 +12653,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -12685,7 +12685,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -12749,7 +12749,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -12781,7 +12781,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -12973,7 +12973,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -13069,7 +13069,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -13101,7 +13101,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -13197,7 +13197,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -13293,7 +13293,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -13325,7 +13325,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -13389,7 +13389,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -13421,7 +13421,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -13485,7 +13485,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -13540,16 +13540,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40">
         <v>7</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -13581,7 +13581,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -13613,7 +13613,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -13709,7 +13709,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -13805,7 +13805,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -13901,7 +13901,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -13933,7 +13933,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -14010,7 +14010,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -14042,7 +14042,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -14106,7 +14106,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -14234,7 +14234,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -14330,7 +14330,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -14362,7 +14362,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -14426,7 +14426,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -14458,7 +14458,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -14650,7 +14650,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -14682,7 +14682,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -14746,7 +14746,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -14778,7 +14778,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -14874,7 +14874,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -14970,7 +14970,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -15002,7 +15002,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -15066,7 +15066,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -15098,7 +15098,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -15162,7 +15162,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -15226,7 +15226,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -15258,7 +15258,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -15290,7 +15290,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -15386,7 +15386,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -15482,7 +15482,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -15569,16 +15569,16 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C51">
         <v>22</v>
       </c>
       <c r="D51">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E51">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <v>47</v>
@@ -15610,7 +15610,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -15687,7 +15687,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -15719,7 +15719,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -15783,7 +15783,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -15911,7 +15911,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -15966,16 +15966,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G11">
         <v>22</v>
@@ -16007,7 +16007,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -16030,7 +16030,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -16039,7 +16039,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -16103,7 +16103,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -16126,16 +16126,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>9</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -16318,16 +16318,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -16359,7 +16359,7 @@
         <v>10</v>
       </c>
       <c r="E23">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>10</v>
@@ -16414,16 +16414,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>17</v>
@@ -16446,16 +16446,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -16542,16 +16542,16 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>9</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <v>9</v>
@@ -16647,7 +16647,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -16679,7 +16679,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -16743,7 +16743,7 @@
         <v>6</v>
       </c>
       <c r="E35">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G35">
         <v>6</v>
@@ -16766,7 +16766,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -16775,7 +16775,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -16839,7 +16839,7 @@
         <v>6</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <v>6</v>
@@ -16894,16 +16894,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40">
         <v>7</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -16935,7 +16935,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -16958,7 +16958,7 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42">
         <v>10</v>
@@ -16967,7 +16967,7 @@
         <v>10</v>
       </c>
       <c r="E42">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>10</v>
@@ -17063,7 +17063,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -17159,7 +17159,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -17255,7 +17255,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -17287,7 +17287,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -17355,7 +17355,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -17364,7 +17364,7 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -17387,7 +17387,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -17396,7 +17396,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -17451,7 +17451,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>22</v>
@@ -17460,7 +17460,7 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -17579,7 +17579,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -17588,7 +17588,7 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -17652,7 +17652,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -17684,7 +17684,7 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -17716,7 +17716,7 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -17771,7 +17771,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -17780,7 +17780,7 @@
         <v>8</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -17803,7 +17803,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -17812,7 +17812,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -17995,7 +17995,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -18004,7 +18004,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -18036,7 +18036,7 @@
         <v>8</v>
       </c>
       <c r="E23">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -18091,7 +18091,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -18100,7 +18100,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -18132,7 +18132,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -18219,7 +18219,7 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -18228,7 +18228,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -18315,7 +18315,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C32">
         <v>8</v>
@@ -18324,7 +18324,7 @@
         <v>8</v>
       </c>
       <c r="E32">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -18347,7 +18347,7 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>22</v>
@@ -18356,7 +18356,7 @@
         <v>22</v>
       </c>
       <c r="E33">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -18420,7 +18420,7 @@
         <v>6</v>
       </c>
       <c r="E35">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -18443,7 +18443,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36">
         <v>8</v>
@@ -18452,7 +18452,7 @@
         <v>8</v>
       </c>
       <c r="E36">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -18516,7 +18516,7 @@
         <v>5</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -18571,7 +18571,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C40">
         <v>13</v>
@@ -18580,7 +18580,7 @@
         <v>13</v>
       </c>
       <c r="E40">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -18603,7 +18603,7 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C41">
         <v>8</v>
@@ -18612,7 +18612,7 @@
         <v>8</v>
       </c>
       <c r="E41">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -18644,7 +18644,7 @@
         <v>9</v>
       </c>
       <c r="E42">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -18731,7 +18731,7 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -18740,7 +18740,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -18827,7 +18827,7 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -18836,7 +18836,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -18923,7 +18923,7 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>22</v>
@@ -18932,7 +18932,7 @@
         <v>22</v>
       </c>
       <c r="E51">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <v>8</v>
@@ -18955,7 +18955,7 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -18964,7 +18964,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -19032,7 +19032,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>18</v>
@@ -19041,7 +19041,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -19064,7 +19064,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -19073,7 +19073,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -19128,7 +19128,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>21</v>
@@ -19137,7 +19137,7 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>46</v>
@@ -19256,7 +19256,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -19265,7 +19265,7 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>25</v>
@@ -19329,7 +19329,7 @@
         <v>19</v>
       </c>
       <c r="E11">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G11">
         <v>8</v>
@@ -19361,7 +19361,7 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>14</v>
@@ -19393,7 +19393,7 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>14</v>
@@ -19448,7 +19448,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -19457,7 +19457,7 @@
         <v>8</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G15">
         <v>32</v>
@@ -19480,7 +19480,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -19489,7 +19489,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -19672,7 +19672,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -19681,7 +19681,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G22">
         <v>15</v>
@@ -19713,7 +19713,7 @@
         <v>4</v>
       </c>
       <c r="E23">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>14</v>
@@ -19768,7 +19768,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -19777,7 +19777,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -19809,7 +19809,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>7</v>
@@ -19896,7 +19896,7 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -19905,7 +19905,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <v>31</v>
@@ -19992,7 +19992,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C32">
         <v>8</v>
@@ -20001,7 +20001,7 @@
         <v>8</v>
       </c>
       <c r="E32">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>30</v>
@@ -20024,7 +20024,7 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>22</v>
@@ -20033,7 +20033,7 @@
         <v>22</v>
       </c>
       <c r="E33">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <v>55</v>
@@ -20097,7 +20097,7 @@
         <v>6</v>
       </c>
       <c r="E35">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G35">
         <v>15</v>
@@ -20120,7 +20120,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36">
         <v>8</v>
@@ -20129,7 +20129,7 @@
         <v>8</v>
       </c>
       <c r="E36">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>24</v>
@@ -20193,7 +20193,7 @@
         <v>5</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <v>15</v>
@@ -20248,7 +20248,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C40">
         <v>13</v>
@@ -20257,7 +20257,7 @@
         <v>13</v>
       </c>
       <c r="E40">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G40">
         <v>37</v>
@@ -20280,7 +20280,7 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C41">
         <v>8</v>
@@ -20289,7 +20289,7 @@
         <v>8</v>
       </c>
       <c r="E41">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G41">
         <v>25</v>
@@ -20321,7 +20321,7 @@
         <v>5</v>
       </c>
       <c r="E42">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>14</v>
@@ -20408,7 +20408,7 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -20417,7 +20417,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G45">
         <v>14</v>
@@ -20504,7 +20504,7 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -20513,7 +20513,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>24</v>
@@ -20600,16 +20600,16 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C51">
         <v>33</v>
       </c>
       <c r="D51">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E51">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <v>66</v>
@@ -20632,7 +20632,7 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -20641,7 +20641,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G52">
         <v>17</v>
@@ -20718,7 +20718,7 @@
         <v>6</v>
       </c>
       <c r="E2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G2">
         <v>9</v>
@@ -20750,7 +20750,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -20814,7 +20814,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -20942,7 +20942,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -20997,16 +20997,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C11">
         <v>53</v>
       </c>
       <c r="D11">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E11">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G11">
         <v>195</v>
@@ -21038,7 +21038,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -21070,7 +21070,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -21134,7 +21134,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -21166,7 +21166,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -21349,16 +21349,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22">
         <v>40</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E22">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G22">
         <v>95</v>
@@ -21390,7 +21390,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -21454,7 +21454,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -21477,16 +21477,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>27</v>
@@ -21573,16 +21573,16 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>21</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E29">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <v>34</v>
@@ -21669,7 +21669,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -21678,7 +21678,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>8</v>
@@ -21701,16 +21701,16 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C33">
         <v>10</v>
       </c>
       <c r="D33">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E33">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <v>23</v>
@@ -21774,7 +21774,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -21806,7 +21806,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -21870,7 +21870,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -21925,7 +21925,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C40">
         <v>15</v>
@@ -21934,7 +21934,7 @@
         <v>17</v>
       </c>
       <c r="E40">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G40">
         <v>24</v>
@@ -21966,7 +21966,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -21998,7 +21998,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -22094,7 +22094,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -22190,7 +22190,7 @@
         <v>3</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>4</v>
@@ -22286,7 +22286,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -22309,7 +22309,7 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -22318,7 +22318,7 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G52">
         <v>8</v>
@@ -22395,7 +22395,7 @@
         <v>6</v>
       </c>
       <c r="E2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G2">
         <v>9</v>
@@ -22427,7 +22427,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -22491,7 +22491,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -22619,7 +22619,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -22674,16 +22674,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C11">
         <v>52</v>
       </c>
       <c r="D11">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E11">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G11">
         <v>195</v>
@@ -22715,7 +22715,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -22747,7 +22747,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -22811,7 +22811,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -22843,7 +22843,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -23026,16 +23026,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22">
         <v>40</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E22">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G22">
         <v>95</v>
@@ -23067,7 +23067,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -23131,7 +23131,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -23154,16 +23154,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>27</v>
@@ -23250,16 +23250,16 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>21</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E29">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <v>34</v>
@@ -23346,7 +23346,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -23355,7 +23355,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>8</v>
@@ -23378,16 +23378,16 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C33">
         <v>10</v>
       </c>
       <c r="D33">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E33">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <v>23</v>
@@ -23451,7 +23451,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -23483,7 +23483,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -23547,7 +23547,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -23602,7 +23602,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C40">
         <v>15</v>
@@ -23611,7 +23611,7 @@
         <v>17</v>
       </c>
       <c r="E40">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G40">
         <v>24</v>
@@ -23643,7 +23643,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -23675,7 +23675,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -23771,7 +23771,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -23867,7 +23867,7 @@
         <v>3</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>4</v>
@@ -23963,7 +23963,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -23986,7 +23986,7 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -23995,7 +23995,7 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G52">
         <v>8</v>
@@ -24072,7 +24072,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -24104,7 +24104,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -24168,7 +24168,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -24296,7 +24296,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -24360,7 +24360,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -24392,7 +24392,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -24424,7 +24424,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -24488,7 +24488,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -24520,7 +24520,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -24712,7 +24712,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -24744,7 +24744,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -24808,7 +24808,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -24840,7 +24840,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -24936,7 +24936,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -25032,7 +25032,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -25064,7 +25064,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -25128,7 +25128,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -25160,7 +25160,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -25224,7 +25224,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -25288,7 +25288,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -25320,7 +25320,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -25352,7 +25352,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -25448,7 +25448,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -25544,7 +25544,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -25631,16 +25631,16 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C51">
         <v>22</v>
       </c>
       <c r="D51">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E51">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <v>42</v>
@@ -25672,7 +25672,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G52">
         <v>2</v>

--- a/experiment_results/worst_case/ExamDB/2wise/0.8_worst_case.xlsx
+++ b/experiment_results/worst_case/ExamDB/2wise/0.8_worst_case.xlsx
@@ -14001,13 +14001,13 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>104</v>
@@ -14129,13 +14129,13 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -14193,13 +14193,13 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>50</v>
@@ -14257,13 +14257,13 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -14609,13 +14609,13 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>50</v>
@@ -15441,13 +15441,13 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E47">
         <v>50</v>
@@ -15537,13 +15537,13 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C50">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>50</v>
@@ -15569,13 +15569,13 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>22</v>
       </c>
       <c r="D51">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E51">
         <v>70</v>

--- a/experiment_results/worst_case/ExamDB/2wise/0.8_worst_case.xlsx
+++ b/experiment_results/worst_case/ExamDB/2wise/0.8_worst_case.xlsx
@@ -626,7 +626,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -649,16 +649,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -754,7 +754,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -786,7 +786,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -818,7 +818,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -850,7 +850,7 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>16</v>
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G11">
         <v>22</v>
@@ -914,7 +914,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -978,7 +978,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1042,7 +1042,7 @@
         <v>9</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -1074,7 +1074,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1106,7 +1106,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -1138,7 +1138,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -1193,16 +1193,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>17</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -1234,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1298,7 +1298,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -1330,7 +1330,7 @@
         <v>15</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <v>17</v>
@@ -1394,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1426,7 +1426,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -1490,7 +1490,7 @@
         <v>13</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>13</v>
@@ -1522,7 +1522,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -1618,7 +1618,7 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G34">
         <v>17</v>
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -1746,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38">
         <v>6</v>
@@ -1778,7 +1778,7 @@
         <v>12</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G39">
         <v>8</v>
@@ -1810,7 +1810,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -1842,7 +1842,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -1874,7 +1874,7 @@
         <v>10</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>10</v>
@@ -1906,7 +1906,7 @@
         <v>6</v>
       </c>
       <c r="E43">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>6</v>
@@ -1938,7 +1938,7 @@
         <v>7</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>7</v>
@@ -1970,7 +1970,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -2002,7 +2002,7 @@
         <v>5</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -2025,16 +2025,16 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C47">
         <v>11</v>
       </c>
       <c r="D47">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>15</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2089,16 +2089,16 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C49">
         <v>5</v>
       </c>
       <c r="D49">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>9</v>
@@ -2121,16 +2121,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C50">
         <v>14</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>22</v>
@@ -2162,7 +2162,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -2194,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -2303,7 +2303,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2326,16 +2326,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2399,7 +2399,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2431,7 +2431,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2495,7 +2495,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2559,7 +2559,7 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G11">
         <v>21</v>
@@ -2591,7 +2591,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -2655,7 +2655,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2719,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2751,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2783,7 +2783,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2815,7 +2815,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2870,16 +2870,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -2911,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2975,7 +2975,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -3071,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -3103,7 +3103,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -3167,7 +3167,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -3199,7 +3199,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3295,7 +3295,7 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G34">
         <v>17</v>
@@ -3359,7 +3359,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3391,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3423,7 +3423,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -3455,7 +3455,7 @@
         <v>10</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G39">
         <v>8</v>
@@ -3487,7 +3487,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -3519,7 +3519,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -3551,7 +3551,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -3583,7 +3583,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -3615,7 +3615,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -3647,7 +3647,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -3679,7 +3679,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -3702,16 +3702,16 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C47">
         <v>8</v>
       </c>
       <c r="D47">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>10</v>
@@ -3743,7 +3743,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -3766,16 +3766,16 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D49">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>9</v>
@@ -3798,16 +3798,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C50">
         <v>16</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>22</v>
@@ -3839,7 +3839,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -3871,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -3980,7 +3980,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -4003,16 +4003,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -4076,7 +4076,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -4108,7 +4108,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -4140,7 +4140,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -4172,7 +4172,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -4204,7 +4204,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -4236,7 +4236,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G11">
         <v>21</v>
@@ -4268,7 +4268,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -4332,7 +4332,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -4364,7 +4364,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -4396,7 +4396,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -4428,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -4460,7 +4460,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -4492,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -4547,16 +4547,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>21</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -4588,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -4652,7 +4652,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -4684,7 +4684,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -4748,7 +4748,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -4780,7 +4780,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -4844,7 +4844,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -4876,7 +4876,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -4972,7 +4972,7 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G34">
         <v>17</v>
@@ -5036,7 +5036,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -5068,7 +5068,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -5100,7 +5100,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -5132,7 +5132,7 @@
         <v>12</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G39">
         <v>8</v>
@@ -5164,7 +5164,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -5196,7 +5196,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -5228,7 +5228,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -5260,7 +5260,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -5292,7 +5292,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -5324,7 +5324,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -5356,7 +5356,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -5379,16 +5379,16 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C47">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>10</v>
@@ -5420,7 +5420,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -5443,16 +5443,16 @@
         <v>57</v>
       </c>
       <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
         <v>7</v>
       </c>
-      <c r="C49">
-        <v>5</v>
-      </c>
       <c r="D49">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>9</v>
@@ -5475,16 +5475,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C50">
         <v>19</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>22</v>
@@ -5516,7 +5516,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -5548,7 +5548,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -5657,7 +5657,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -5680,16 +5680,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -5753,7 +5753,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -5785,7 +5785,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -5817,7 +5817,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -5849,7 +5849,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -5881,7 +5881,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -5913,7 +5913,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G11">
         <v>21</v>
@@ -5945,7 +5945,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -6009,7 +6009,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -6041,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -6073,7 +6073,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -6105,7 +6105,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -6137,7 +6137,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -6224,16 +6224,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D21">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -6265,7 +6265,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -6329,7 +6329,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -6361,7 +6361,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -6425,7 +6425,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -6457,7 +6457,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -6521,7 +6521,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -6553,7 +6553,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -6640,16 +6640,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C34">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D34">
         <v>30</v>
       </c>
       <c r="E34">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G34">
         <v>171</v>
@@ -6713,7 +6713,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -6745,7 +6745,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -6777,7 +6777,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -6800,16 +6800,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D39">
         <v>29</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -6841,7 +6841,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -6873,7 +6873,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -6905,7 +6905,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -6937,7 +6937,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -6969,7 +6969,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -7001,7 +7001,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -7033,7 +7033,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -7056,16 +7056,16 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D47">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>16</v>
@@ -7097,7 +7097,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -7120,16 +7120,16 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D49">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>9</v>
@@ -7152,16 +7152,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D50">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>22</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -7225,7 +7225,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -7334,7 +7334,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -7357,16 +7357,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -7430,7 +7430,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -7462,7 +7462,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -7494,7 +7494,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -7526,7 +7526,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -7558,7 +7558,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -7590,7 +7590,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G11">
         <v>21</v>
@@ -7622,7 +7622,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -7686,7 +7686,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -7718,7 +7718,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -7750,7 +7750,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -7782,7 +7782,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -7814,7 +7814,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -7846,7 +7846,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -7901,16 +7901,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C21">
         <v>21</v>
       </c>
       <c r="D21">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -8006,7 +8006,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -8038,7 +8038,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -8102,7 +8102,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -8134,7 +8134,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -8198,7 +8198,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -8230,7 +8230,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -8317,16 +8317,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C34">
         <v>21</v>
       </c>
       <c r="D34">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E34">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G34">
         <v>171</v>
@@ -8390,7 +8390,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -8422,7 +8422,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -8454,7 +8454,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -8477,16 +8477,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C39">
         <v>16</v>
       </c>
       <c r="D39">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -8518,7 +8518,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -8550,7 +8550,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -8582,7 +8582,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -8646,7 +8646,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -8678,7 +8678,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -8710,7 +8710,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -8733,16 +8733,16 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C47">
         <v>14</v>
       </c>
       <c r="D47">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>16</v>
@@ -8774,7 +8774,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -8797,16 +8797,16 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C49">
         <v>14</v>
       </c>
       <c r="D49">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>9</v>
@@ -8829,16 +8829,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C50">
         <v>26</v>
       </c>
       <c r="D50">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>22</v>
@@ -8870,7 +8870,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -8902,7 +8902,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -9011,7 +9011,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -9034,16 +9034,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -9107,7 +9107,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -9139,7 +9139,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -9171,7 +9171,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -9203,7 +9203,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -9235,7 +9235,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -9267,7 +9267,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -9299,7 +9299,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -9363,7 +9363,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -9395,7 +9395,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -9427,7 +9427,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -9459,7 +9459,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -9491,7 +9491,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -9523,7 +9523,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -9578,16 +9578,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>17</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>23</v>
@@ -9619,7 +9619,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -9683,7 +9683,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -9715,7 +9715,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -9779,7 +9779,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -9811,7 +9811,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -9875,7 +9875,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -9907,7 +9907,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -10003,7 +10003,7 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G34">
         <v>17</v>
@@ -10067,7 +10067,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -10099,7 +10099,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -10131,7 +10131,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -10163,7 +10163,7 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G39">
         <v>5</v>
@@ -10195,7 +10195,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -10227,7 +10227,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -10259,7 +10259,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -10291,7 +10291,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -10323,7 +10323,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -10355,7 +10355,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -10387,7 +10387,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -10419,7 +10419,7 @@
         <v>12</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>6</v>
@@ -10451,7 +10451,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -10474,16 +10474,16 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -10506,16 +10506,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C50">
         <v>14</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>22</v>
@@ -10547,7 +10547,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -10579,7 +10579,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -10688,7 +10688,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -10720,7 +10720,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -10775,16 +10775,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>16</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>48</v>
@@ -10816,7 +10816,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -10848,7 +10848,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -10880,7 +10880,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -10912,7 +10912,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -10944,7 +10944,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -10976,7 +10976,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -11040,7 +11040,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -11072,7 +11072,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -11104,7 +11104,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -11168,7 +11168,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -11200,7 +11200,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -11264,7 +11264,7 @@
         <v>23</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>17</v>
@@ -11296,7 +11296,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -11360,7 +11360,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -11392,7 +11392,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -11488,7 +11488,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -11552,7 +11552,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -11584,7 +11584,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -11680,7 +11680,7 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G34">
         <v>17</v>
@@ -11744,7 +11744,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -11776,7 +11776,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -11808,7 +11808,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -11840,7 +11840,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -11872,7 +11872,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -11904,7 +11904,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -11936,7 +11936,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -11968,7 +11968,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -12000,7 +12000,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -12032,7 +12032,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -12064,7 +12064,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -12096,7 +12096,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -12128,7 +12128,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -12160,7 +12160,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -12183,16 +12183,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C50">
         <v>14</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>16</v>
@@ -12215,16 +12215,16 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C51">
         <v>22</v>
       </c>
       <c r="D51">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>47</v>
@@ -12256,7 +12256,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -12365,7 +12365,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -12388,16 +12388,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -12461,7 +12461,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -12493,7 +12493,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -12525,7 +12525,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -12557,7 +12557,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -12589,7 +12589,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -12621,7 +12621,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -12653,7 +12653,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -12717,7 +12717,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -12749,7 +12749,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -12781,7 +12781,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -12813,7 +12813,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -12845,7 +12845,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -12932,16 +12932,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>17</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>23</v>
@@ -12973,7 +12973,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -13037,7 +13037,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -13069,7 +13069,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -13133,7 +13133,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -13165,7 +13165,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -13229,7 +13229,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -13261,7 +13261,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -13357,7 +13357,7 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G34">
         <v>17</v>
@@ -13421,7 +13421,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -13453,7 +13453,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -13485,7 +13485,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -13517,7 +13517,7 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G39">
         <v>5</v>
@@ -13549,7 +13549,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -13581,7 +13581,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -13613,7 +13613,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -13645,7 +13645,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -13677,7 +13677,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -13709,7 +13709,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -13741,7 +13741,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -13773,7 +13773,7 @@
         <v>7</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>6</v>
@@ -13805,7 +13805,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -13837,7 +13837,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -13860,16 +13860,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C50">
         <v>14</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>22</v>
@@ -13901,7 +13901,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -13933,7 +13933,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -14042,7 +14042,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -14074,7 +14074,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -14129,16 +14129,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>16</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>48</v>
@@ -14170,7 +14170,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -14202,7 +14202,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -14234,7 +14234,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -14266,7 +14266,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -14330,7 +14330,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -14394,7 +14394,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -14426,7 +14426,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -14458,7 +14458,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -14490,7 +14490,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -14522,7 +14522,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -14554,7 +14554,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -14618,7 +14618,7 @@
         <v>16</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>17</v>
@@ -14650,7 +14650,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -14714,7 +14714,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -14746,7 +14746,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -14810,7 +14810,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -14842,7 +14842,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -14906,7 +14906,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -14938,7 +14938,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -15034,7 +15034,7 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G34">
         <v>17</v>
@@ -15098,7 +15098,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -15130,7 +15130,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -15162,7 +15162,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -15194,7 +15194,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -15226,7 +15226,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -15258,7 +15258,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -15290,7 +15290,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -15322,7 +15322,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -15354,7 +15354,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -15386,7 +15386,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -15418,7 +15418,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -15450,7 +15450,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -15482,7 +15482,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -15514,7 +15514,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -15546,7 +15546,7 @@
         <v>16</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>16</v>
@@ -15569,16 +15569,16 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C51">
         <v>22</v>
       </c>
       <c r="D51">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>47</v>
@@ -15610,7 +15610,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -15719,7 +15719,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -15742,16 +15742,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -15815,7 +15815,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -15847,7 +15847,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -15879,7 +15879,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -15911,7 +15911,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -15943,7 +15943,7 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>16</v>
@@ -15975,7 +15975,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G11">
         <v>22</v>
@@ -16007,7 +16007,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -16071,7 +16071,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -16103,7 +16103,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -16135,7 +16135,7 @@
         <v>9</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -16167,7 +16167,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -16199,7 +16199,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -16231,7 +16231,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -16286,16 +16286,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -16327,7 +16327,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -16391,7 +16391,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -16423,7 +16423,7 @@
         <v>15</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <v>17</v>
@@ -16487,7 +16487,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -16519,7 +16519,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -16583,7 +16583,7 @@
         <v>13</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>13</v>
@@ -16615,7 +16615,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -16711,7 +16711,7 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G34">
         <v>17</v>
@@ -16775,7 +16775,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -16807,7 +16807,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -16839,7 +16839,7 @@
         <v>6</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38">
         <v>6</v>
@@ -16871,7 +16871,7 @@
         <v>12</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G39">
         <v>8</v>
@@ -16903,7 +16903,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -16935,7 +16935,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -16967,7 +16967,7 @@
         <v>10</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>10</v>
@@ -16999,7 +16999,7 @@
         <v>6</v>
       </c>
       <c r="E43">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>6</v>
@@ -17031,7 +17031,7 @@
         <v>7</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>7</v>
@@ -17063,7 +17063,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -17095,7 +17095,7 @@
         <v>5</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -17118,16 +17118,16 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C47">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>15</v>
@@ -17159,7 +17159,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -17182,16 +17182,16 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D49">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>9</v>
@@ -17214,16 +17214,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C50">
         <v>16</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>22</v>
@@ -17255,7 +17255,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -17287,7 +17287,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -17387,7 +17387,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -17396,7 +17396,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -17419,7 +17419,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -17428,7 +17428,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -17483,7 +17483,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -17492,7 +17492,7 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -17524,7 +17524,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -17556,7 +17556,7 @@
         <v>12</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -17579,7 +17579,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -17588,7 +17588,7 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -17620,7 +17620,7 @@
         <v>7</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -17643,7 +17643,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -17652,7 +17652,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -17675,7 +17675,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -17684,7 +17684,7 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -17748,7 +17748,7 @@
         <v>19</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -17771,7 +17771,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -17780,7 +17780,7 @@
         <v>8</v>
       </c>
       <c r="E15">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -17803,7 +17803,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -17812,7 +17812,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -17835,7 +17835,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -17844,7 +17844,7 @@
         <v>16</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -17876,7 +17876,7 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -17899,7 +17899,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -17908,7 +17908,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -17972,7 +17972,7 @@
         <v>18</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>23</v>
@@ -17995,7 +17995,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -18004,7 +18004,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -18068,7 +18068,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -18091,7 +18091,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -18100,7 +18100,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -18155,16 +18155,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -18196,7 +18196,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -18260,7 +18260,7 @@
         <v>9</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>11</v>
@@ -18283,7 +18283,7 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>16</v>
@@ -18292,7 +18292,7 @@
         <v>16</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -18388,7 +18388,7 @@
         <v>19</v>
       </c>
       <c r="E34">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G34">
         <v>16</v>
@@ -18443,7 +18443,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36">
         <v>8</v>
@@ -18452,7 +18452,7 @@
         <v>8</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -18475,7 +18475,7 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -18484,7 +18484,7 @@
         <v>3</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -18507,7 +18507,7 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -18516,7 +18516,7 @@
         <v>5</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -18548,7 +18548,7 @@
         <v>10</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G39">
         <v>5</v>
@@ -18571,7 +18571,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C40">
         <v>13</v>
@@ -18580,7 +18580,7 @@
         <v>13</v>
       </c>
       <c r="E40">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -18603,7 +18603,7 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41">
         <v>8</v>
@@ -18612,7 +18612,7 @@
         <v>8</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -18635,7 +18635,7 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42">
         <v>9</v>
@@ -18644,7 +18644,7 @@
         <v>9</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -18676,7 +18676,7 @@
         <v>4</v>
       </c>
       <c r="E43">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>5</v>
@@ -18708,7 +18708,7 @@
         <v>16</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>6</v>
@@ -18731,7 +18731,7 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -18740,7 +18740,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -18772,7 +18772,7 @@
         <v>17</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -18804,7 +18804,7 @@
         <v>4</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>5</v>
@@ -18827,7 +18827,7 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -18836,7 +18836,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -18868,7 +18868,7 @@
         <v>4</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -18900,7 +18900,7 @@
         <v>16</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>22</v>
@@ -18923,7 +18923,7 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C51">
         <v>22</v>
@@ -18932,7 +18932,7 @@
         <v>22</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>8</v>
@@ -18955,7 +18955,7 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -18964,7 +18964,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -19064,7 +19064,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -19073,7 +19073,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -19105,7 +19105,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -19160,16 +19160,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>48</v>
@@ -19201,7 +19201,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>24</v>
@@ -19233,7 +19233,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -19256,7 +19256,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -19265,7 +19265,7 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>25</v>
@@ -19297,7 +19297,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -19320,7 +19320,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>19</v>
@@ -19329,7 +19329,7 @@
         <v>19</v>
       </c>
       <c r="E11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G11">
         <v>8</v>
@@ -19352,7 +19352,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -19361,7 +19361,7 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>14</v>
@@ -19425,7 +19425,7 @@
         <v>14</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>32</v>
@@ -19448,7 +19448,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -19457,7 +19457,7 @@
         <v>8</v>
       </c>
       <c r="E15">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>32</v>
@@ -19480,7 +19480,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -19489,7 +19489,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -19512,7 +19512,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -19521,7 +19521,7 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>47</v>
@@ -19553,7 +19553,7 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>25</v>
@@ -19576,7 +19576,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -19585,7 +19585,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>17</v>
@@ -19649,7 +19649,7 @@
         <v>14</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>31</v>
@@ -19672,7 +19672,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -19681,7 +19681,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G22">
         <v>15</v>
@@ -19745,7 +19745,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>45</v>
@@ -19768,7 +19768,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -19777,7 +19777,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -19832,16 +19832,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>16</v>
@@ -19873,7 +19873,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>14</v>
@@ -19937,7 +19937,7 @@
         <v>4</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -19960,7 +19960,7 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>16</v>
@@ -19969,7 +19969,7 @@
         <v>16</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>48</v>
@@ -20065,7 +20065,7 @@
         <v>19</v>
       </c>
       <c r="E34">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G34">
         <v>51</v>
@@ -20120,7 +20120,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36">
         <v>8</v>
@@ -20129,7 +20129,7 @@
         <v>8</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>24</v>
@@ -20152,7 +20152,7 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -20161,7 +20161,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>16</v>
@@ -20184,7 +20184,7 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -20193,7 +20193,7 @@
         <v>5</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38">
         <v>15</v>
@@ -20225,7 +20225,7 @@
         <v>10</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G39">
         <v>21</v>
@@ -20248,7 +20248,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C40">
         <v>13</v>
@@ -20257,7 +20257,7 @@
         <v>13</v>
       </c>
       <c r="E40">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G40">
         <v>37</v>
@@ -20280,7 +20280,7 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41">
         <v>8</v>
@@ -20289,7 +20289,7 @@
         <v>8</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G41">
         <v>25</v>
@@ -20312,7 +20312,7 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -20321,7 +20321,7 @@
         <v>5</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>14</v>
@@ -20353,7 +20353,7 @@
         <v>4</v>
       </c>
       <c r="E43">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>14</v>
@@ -20385,7 +20385,7 @@
         <v>5</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>15</v>
@@ -20408,7 +20408,7 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -20417,7 +20417,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G45">
         <v>14</v>
@@ -20449,7 +20449,7 @@
         <v>14</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>31</v>
@@ -20481,7 +20481,7 @@
         <v>4</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>14</v>
@@ -20504,7 +20504,7 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -20513,7 +20513,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>24</v>
@@ -20545,7 +20545,7 @@
         <v>4</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>14</v>
@@ -20577,7 +20577,7 @@
         <v>13</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>44</v>
@@ -20600,16 +20600,16 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C51">
         <v>33</v>
       </c>
       <c r="D51">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>66</v>
@@ -20632,7 +20632,7 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -20641,7 +20641,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>17</v>
@@ -20750,7 +20750,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -20773,16 +20773,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>22</v>
@@ -20846,7 +20846,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -20878,7 +20878,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -20910,7 +20910,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -20942,7 +20942,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -20974,7 +20974,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -20997,16 +20997,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11">
         <v>53</v>
       </c>
       <c r="D11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G11">
         <v>195</v>
@@ -21038,7 +21038,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -21102,7 +21102,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -21134,7 +21134,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -21166,7 +21166,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -21198,7 +21198,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -21230,7 +21230,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -21262,7 +21262,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>6</v>
@@ -21317,16 +21317,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>181</v>
@@ -21349,16 +21349,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>40</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G22">
         <v>95</v>
@@ -21422,7 +21422,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>117</v>
@@ -21454,7 +21454,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -21518,7 +21518,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -21550,7 +21550,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -21614,7 +21614,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -21637,16 +21637,16 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C31">
         <v>6</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>26</v>
@@ -21733,16 +21733,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E34">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G34">
         <v>175</v>
@@ -21806,7 +21806,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -21838,7 +21838,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -21870,7 +21870,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -21893,16 +21893,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D39">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G39">
         <v>169</v>
@@ -21934,7 +21934,7 @@
         <v>17</v>
       </c>
       <c r="E40">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G40">
         <v>24</v>
@@ -21966,7 +21966,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -21998,7 +21998,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -22030,7 +22030,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -22062,7 +22062,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -22094,7 +22094,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -22126,7 +22126,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -22149,16 +22149,16 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C47">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D47">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>169</v>
@@ -22190,7 +22190,7 @@
         <v>3</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>4</v>
@@ -22213,16 +22213,16 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C49">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D49">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>165</v>
@@ -22245,16 +22245,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C50">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D50">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>181</v>
@@ -22286,7 +22286,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -22318,7 +22318,7 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>8</v>
@@ -22427,7 +22427,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -22450,16 +22450,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>22</v>
@@ -22523,7 +22523,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -22555,7 +22555,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -22587,7 +22587,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -22619,7 +22619,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -22651,7 +22651,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -22674,16 +22674,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11">
         <v>52</v>
       </c>
       <c r="D11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G11">
         <v>195</v>
@@ -22715,7 +22715,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -22779,7 +22779,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -22811,7 +22811,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -22843,7 +22843,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -22875,7 +22875,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -22907,7 +22907,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -22939,7 +22939,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>6</v>
@@ -22994,16 +22994,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>181</v>
@@ -23026,16 +23026,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>40</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G22">
         <v>95</v>
@@ -23099,7 +23099,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>117</v>
@@ -23131,7 +23131,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -23195,7 +23195,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -23227,7 +23227,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -23291,7 +23291,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -23314,16 +23314,16 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C31">
         <v>6</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>26</v>
@@ -23410,16 +23410,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C34">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D34">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E34">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G34">
         <v>175</v>
@@ -23483,7 +23483,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -23515,7 +23515,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -23547,7 +23547,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -23570,16 +23570,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D39">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G39">
         <v>169</v>
@@ -23611,7 +23611,7 @@
         <v>17</v>
       </c>
       <c r="E40">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G40">
         <v>24</v>
@@ -23643,7 +23643,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -23675,7 +23675,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -23707,7 +23707,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -23739,7 +23739,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -23771,7 +23771,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -23803,7 +23803,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -23826,16 +23826,16 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C47">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D47">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>169</v>
@@ -23867,7 +23867,7 @@
         <v>3</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>4</v>
@@ -23890,16 +23890,16 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C49">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D49">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>165</v>
@@ -23922,16 +23922,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C50">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D50">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>181</v>
@@ -23963,7 +23963,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -23995,7 +23995,7 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>8</v>
@@ -24104,7 +24104,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -24136,7 +24136,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -24191,16 +24191,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>43</v>
@@ -24232,7 +24232,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -24264,7 +24264,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -24296,7 +24296,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -24328,7 +24328,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -24360,7 +24360,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -24392,7 +24392,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -24456,7 +24456,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -24488,7 +24488,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -24520,7 +24520,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -24552,7 +24552,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -24584,7 +24584,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -24616,7 +24616,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -24671,16 +24671,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <v>17</v>
       </c>
       <c r="D21">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>17</v>
@@ -24712,7 +24712,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -24776,7 +24776,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -24808,7 +24808,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -24872,7 +24872,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -24904,7 +24904,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -24968,7 +24968,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -25000,7 +25000,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -25087,16 +25087,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C34">
         <v>12</v>
       </c>
       <c r="D34">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E34">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G34">
         <v>17</v>
@@ -25160,7 +25160,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -25192,7 +25192,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -25224,7 +25224,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -25256,7 +25256,7 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -25288,7 +25288,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -25320,7 +25320,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -25352,7 +25352,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -25384,7 +25384,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -25416,7 +25416,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -25448,7 +25448,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -25480,7 +25480,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -25512,7 +25512,7 @@
         <v>5</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -25544,7 +25544,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -25576,7 +25576,7 @@
         <v>4</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -25599,16 +25599,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C50">
         <v>14</v>
       </c>
       <c r="D50">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>16</v>
@@ -25640,7 +25640,7 @@
         <v>31</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>42</v>
@@ -25672,7 +25672,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>2</v>

--- a/experiment_results/worst_case/ExamDB/2wise/0.8_worst_case.xlsx
+++ b/experiment_results/worst_case/ExamDB/2wise/0.8_worst_case.xlsx
@@ -594,7 +594,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -626,7 +626,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -690,7 +690,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -754,7 +754,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -786,7 +786,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -818,7 +818,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -850,7 +850,7 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>16</v>
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="G11">
         <v>22</v>
@@ -914,7 +914,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -946,7 +946,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -978,7 +978,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1042,7 +1042,7 @@
         <v>9</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -1074,7 +1074,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1106,7 +1106,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -1138,7 +1138,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -1202,7 +1202,7 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -1234,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1266,7 +1266,7 @@
         <v>10</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>10</v>
@@ -1298,7 +1298,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -1330,7 +1330,7 @@
         <v>15</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>17</v>
@@ -1362,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -1394,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1426,7 +1426,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -1458,7 +1458,7 @@
         <v>9</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>9</v>
@@ -1490,7 +1490,7 @@
         <v>13</v>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>13</v>
@@ -1522,7 +1522,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -1554,7 +1554,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1586,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -1618,7 +1618,7 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>17</v>
@@ -1650,7 +1650,7 @@
         <v>6</v>
       </c>
       <c r="E35">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G35">
         <v>6</v>
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -1746,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="E38">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G38">
         <v>6</v>
@@ -1778,7 +1778,7 @@
         <v>12</v>
       </c>
       <c r="E39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>8</v>
@@ -1810,7 +1810,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -1842,7 +1842,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -1874,7 +1874,7 @@
         <v>10</v>
       </c>
       <c r="E42">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="G42">
         <v>10</v>
@@ -1906,7 +1906,7 @@
         <v>6</v>
       </c>
       <c r="E43">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G43">
         <v>6</v>
@@ -1938,7 +1938,7 @@
         <v>7</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G44">
         <v>7</v>
@@ -1970,7 +1970,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -2002,7 +2002,7 @@
         <v>5</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -2034,7 +2034,7 @@
         <v>18</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G47">
         <v>15</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2098,7 +2098,7 @@
         <v>11</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G49">
         <v>9</v>
@@ -2130,7 +2130,7 @@
         <v>22</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G50">
         <v>22</v>
@@ -2162,7 +2162,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -2194,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2303,7 +2303,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2335,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2367,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2399,7 +2399,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2431,7 +2431,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2495,7 +2495,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2559,7 +2559,7 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="G11">
         <v>21</v>
@@ -2591,7 +2591,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -2623,7 +2623,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -2655,7 +2655,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2719,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2751,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2783,7 +2783,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2815,7 +2815,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2879,7 +2879,7 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -2911,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2943,7 +2943,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -2975,7 +2975,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -3039,7 +3039,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -3071,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -3103,7 +3103,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -3135,7 +3135,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -3167,7 +3167,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -3199,7 +3199,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3231,7 +3231,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3263,7 +3263,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -3295,7 +3295,7 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>17</v>
@@ -3327,7 +3327,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -3359,7 +3359,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3391,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3423,7 +3423,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -3455,7 +3455,7 @@
         <v>10</v>
       </c>
       <c r="E39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>8</v>
@@ -3487,7 +3487,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -3519,7 +3519,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -3551,7 +3551,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -3583,7 +3583,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -3615,7 +3615,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -3647,7 +3647,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -3679,7 +3679,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -3711,7 +3711,7 @@
         <v>14</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G47">
         <v>10</v>
@@ -3743,7 +3743,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -3775,7 +3775,7 @@
         <v>10</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G49">
         <v>9</v>
@@ -3807,7 +3807,7 @@
         <v>22</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G50">
         <v>22</v>
@@ -3839,7 +3839,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -3871,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -3980,7 +3980,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -4012,7 +4012,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -4044,7 +4044,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -4076,7 +4076,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -4108,7 +4108,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -4140,7 +4140,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -4172,7 +4172,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -4204,7 +4204,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -4236,7 +4236,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="G11">
         <v>21</v>
@@ -4268,7 +4268,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -4300,7 +4300,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -4332,7 +4332,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -4364,7 +4364,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -4396,7 +4396,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -4428,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -4460,7 +4460,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -4492,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -4556,7 +4556,7 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -4588,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -4620,7 +4620,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -4652,7 +4652,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -4684,7 +4684,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -4716,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -4748,7 +4748,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -4780,7 +4780,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -4812,7 +4812,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -4844,7 +4844,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -4876,7 +4876,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -4908,7 +4908,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -4940,7 +4940,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -4972,7 +4972,7 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>17</v>
@@ -5004,7 +5004,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -5036,7 +5036,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -5068,7 +5068,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -5100,7 +5100,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -5132,7 +5132,7 @@
         <v>12</v>
       </c>
       <c r="E39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>8</v>
@@ -5164,7 +5164,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -5196,7 +5196,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -5228,7 +5228,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -5260,7 +5260,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -5292,7 +5292,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -5324,7 +5324,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -5356,7 +5356,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -5388,7 +5388,7 @@
         <v>18</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G47">
         <v>10</v>
@@ -5420,7 +5420,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -5452,7 +5452,7 @@
         <v>10</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G49">
         <v>9</v>
@@ -5484,7 +5484,7 @@
         <v>22</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G50">
         <v>22</v>
@@ -5516,7 +5516,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -5548,7 +5548,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -5657,7 +5657,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -5689,7 +5689,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -5721,7 +5721,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -5753,7 +5753,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -5785,7 +5785,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -5817,7 +5817,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -5849,7 +5849,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -5881,7 +5881,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -5913,7 +5913,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="G11">
         <v>21</v>
@@ -5945,7 +5945,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -5977,7 +5977,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -6009,7 +6009,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -6041,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -6073,7 +6073,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -6105,7 +6105,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -6137,7 +6137,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -6224,16 +6224,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D21">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -6265,7 +6265,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -6297,7 +6297,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -6329,7 +6329,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -6361,7 +6361,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -6393,7 +6393,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -6425,7 +6425,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -6457,7 +6457,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -6489,7 +6489,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -6521,7 +6521,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -6553,7 +6553,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -6585,7 +6585,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -6617,7 +6617,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -6640,16 +6640,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C34">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="D34">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E34">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>171</v>
@@ -6681,7 +6681,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -6713,7 +6713,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -6745,7 +6745,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -6777,7 +6777,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -6800,16 +6800,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D39">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -6841,7 +6841,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -6873,7 +6873,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -6905,7 +6905,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -6937,7 +6937,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -6969,7 +6969,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -7001,7 +7001,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -7033,7 +7033,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -7056,16 +7056,16 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C47">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D47">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G47">
         <v>16</v>
@@ -7097,7 +7097,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -7120,16 +7120,16 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C49">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D49">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G49">
         <v>9</v>
@@ -7152,16 +7152,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C50">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="D50">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G50">
         <v>22</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -7225,7 +7225,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -7302,7 +7302,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -7334,7 +7334,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -7366,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -7398,7 +7398,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -7430,7 +7430,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -7462,7 +7462,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -7494,7 +7494,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -7526,7 +7526,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -7558,7 +7558,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -7590,7 +7590,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="G11">
         <v>21</v>
@@ -7622,7 +7622,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -7654,7 +7654,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -7686,7 +7686,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -7718,7 +7718,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -7750,7 +7750,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -7782,7 +7782,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -7814,7 +7814,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -7846,7 +7846,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -7901,16 +7901,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -7936,13 +7936,13 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -7974,7 +7974,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -8006,7 +8006,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -8038,7 +8038,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -8070,7 +8070,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -8102,7 +8102,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -8134,7 +8134,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -8166,7 +8166,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -8198,7 +8198,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -8230,7 +8230,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -8262,7 +8262,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -8294,7 +8294,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -8317,16 +8317,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D34">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E34">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>171</v>
@@ -8358,7 +8358,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -8390,7 +8390,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -8422,7 +8422,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -8454,7 +8454,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -8477,16 +8477,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
         <v>16</v>
       </c>
-      <c r="D39">
-        <v>38</v>
-      </c>
       <c r="E39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -8518,7 +8518,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -8550,7 +8550,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -8582,7 +8582,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -8646,7 +8646,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -8678,7 +8678,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -8710,7 +8710,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -8733,16 +8733,16 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C47">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D47">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G47">
         <v>16</v>
@@ -8774,7 +8774,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -8797,16 +8797,16 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C49">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D49">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G49">
         <v>9</v>
@@ -8829,16 +8829,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C50">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D50">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G50">
         <v>22</v>
@@ -8870,7 +8870,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -8902,7 +8902,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -8979,7 +8979,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -9011,7 +9011,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -9043,7 +9043,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -9075,7 +9075,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -9107,7 +9107,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -9139,7 +9139,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -9171,7 +9171,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -9203,7 +9203,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -9235,7 +9235,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -9267,7 +9267,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -9299,7 +9299,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -9331,7 +9331,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -9363,7 +9363,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -9395,7 +9395,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -9427,7 +9427,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -9459,7 +9459,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -9491,7 +9491,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -9523,7 +9523,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -9587,7 +9587,7 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>23</v>
@@ -9619,7 +9619,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -9651,7 +9651,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -9683,7 +9683,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -9715,7 +9715,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -9747,7 +9747,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -9779,7 +9779,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -9811,7 +9811,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -9843,7 +9843,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -9875,7 +9875,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -9907,7 +9907,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -9939,7 +9939,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -9971,7 +9971,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -10003,7 +10003,7 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>17</v>
@@ -10035,7 +10035,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -10067,7 +10067,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -10099,7 +10099,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -10131,7 +10131,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -10163,7 +10163,7 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>5</v>
@@ -10195,7 +10195,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -10227,7 +10227,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -10259,7 +10259,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -10291,7 +10291,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -10323,7 +10323,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -10355,7 +10355,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -10387,7 +10387,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -10419,7 +10419,7 @@
         <v>12</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G47">
         <v>6</v>
@@ -10451,7 +10451,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -10483,7 +10483,7 @@
         <v>6</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -10515,7 +10515,7 @@
         <v>21</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G50">
         <v>22</v>
@@ -10547,7 +10547,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -10579,7 +10579,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -10656,7 +10656,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -10688,7 +10688,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -10720,7 +10720,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -10752,7 +10752,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -10784,7 +10784,7 @@
         <v>35</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>48</v>
@@ -10816,7 +10816,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -10848,7 +10848,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -10880,7 +10880,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -10912,7 +10912,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -10944,7 +10944,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -10976,7 +10976,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -11008,7 +11008,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -11040,7 +11040,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -11072,7 +11072,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -11104,7 +11104,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -11168,7 +11168,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -11200,7 +11200,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -11264,7 +11264,7 @@
         <v>23</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>17</v>
@@ -11296,7 +11296,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -11328,7 +11328,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -11360,7 +11360,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -11392,7 +11392,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -11424,7 +11424,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -11488,7 +11488,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -11520,7 +11520,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -11552,7 +11552,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -11584,7 +11584,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -11616,7 +11616,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -11648,7 +11648,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -11680,7 +11680,7 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>17</v>
@@ -11712,7 +11712,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -11744,7 +11744,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -11776,7 +11776,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -11808,7 +11808,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -11840,7 +11840,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -11872,7 +11872,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -11904,7 +11904,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -11936,7 +11936,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -11968,7 +11968,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -12000,7 +12000,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -12032,7 +12032,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -12064,7 +12064,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -12096,7 +12096,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -12128,7 +12128,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -12160,7 +12160,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -12192,7 +12192,7 @@
         <v>21</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G50">
         <v>16</v>
@@ -12224,7 +12224,7 @@
         <v>34</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G51">
         <v>47</v>
@@ -12256,7 +12256,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -12333,7 +12333,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -12365,7 +12365,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -12397,7 +12397,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -12429,7 +12429,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -12461,7 +12461,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -12493,7 +12493,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -12525,7 +12525,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -12557,7 +12557,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -12589,7 +12589,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -12621,7 +12621,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -12653,7 +12653,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -12685,7 +12685,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -12717,7 +12717,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -12749,7 +12749,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -12781,7 +12781,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -12813,7 +12813,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -12845,7 +12845,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -12941,7 +12941,7 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>23</v>
@@ -12973,7 +12973,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -13037,7 +13037,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -13069,7 +13069,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -13101,7 +13101,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -13133,7 +13133,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -13165,7 +13165,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -13197,7 +13197,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -13229,7 +13229,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -13261,7 +13261,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -13293,7 +13293,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -13325,7 +13325,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -13357,7 +13357,7 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>17</v>
@@ -13389,7 +13389,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -13421,7 +13421,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -13453,7 +13453,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -13485,7 +13485,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -13517,7 +13517,7 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>5</v>
@@ -13549,7 +13549,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -13581,7 +13581,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -13613,7 +13613,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -13645,7 +13645,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -13677,7 +13677,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -13709,7 +13709,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -13741,7 +13741,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -13773,7 +13773,7 @@
         <v>7</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G47">
         <v>6</v>
@@ -13805,7 +13805,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -13837,7 +13837,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -13869,7 +13869,7 @@
         <v>21</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G50">
         <v>22</v>
@@ -13901,7 +13901,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -13933,7 +13933,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -14010,7 +14010,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -14042,7 +14042,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -14074,7 +14074,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -14106,7 +14106,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -14138,7 +14138,7 @@
         <v>35</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>48</v>
@@ -14170,7 +14170,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -14202,7 +14202,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -14234,7 +14234,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -14266,7 +14266,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -14330,7 +14330,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -14362,7 +14362,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -14394,7 +14394,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -14426,7 +14426,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -14458,7 +14458,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -14490,7 +14490,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -14522,7 +14522,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -14554,7 +14554,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -14618,7 +14618,7 @@
         <v>16</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>17</v>
@@ -14650,7 +14650,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -14682,7 +14682,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -14714,7 +14714,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -14746,7 +14746,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -14778,7 +14778,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -14810,7 +14810,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -14842,7 +14842,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -14874,7 +14874,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -14906,7 +14906,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -14938,7 +14938,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -14970,7 +14970,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -15002,7 +15002,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -15034,7 +15034,7 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>17</v>
@@ -15066,7 +15066,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -15098,7 +15098,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -15130,7 +15130,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -15162,7 +15162,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -15194,7 +15194,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -15226,7 +15226,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -15258,7 +15258,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -15290,7 +15290,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -15322,7 +15322,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -15354,7 +15354,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -15386,7 +15386,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -15418,7 +15418,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -15450,7 +15450,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -15482,7 +15482,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -15514,7 +15514,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -15546,7 +15546,7 @@
         <v>16</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G50">
         <v>16</v>
@@ -15578,7 +15578,7 @@
         <v>34</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G51">
         <v>47</v>
@@ -15610,7 +15610,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -15687,7 +15687,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -15719,7 +15719,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -15751,7 +15751,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -15783,7 +15783,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -15815,7 +15815,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -15847,7 +15847,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -15879,7 +15879,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -15911,7 +15911,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -15943,7 +15943,7 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>16</v>
@@ -15975,7 +15975,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="G11">
         <v>22</v>
@@ -16007,7 +16007,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -16039,7 +16039,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -16071,7 +16071,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -16103,7 +16103,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -16135,7 +16135,7 @@
         <v>9</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -16167,7 +16167,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -16199,7 +16199,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -16231,7 +16231,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -16295,7 +16295,7 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -16327,7 +16327,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -16359,7 +16359,7 @@
         <v>10</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>10</v>
@@ -16391,7 +16391,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -16423,7 +16423,7 @@
         <v>15</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>17</v>
@@ -16455,7 +16455,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -16487,7 +16487,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -16519,7 +16519,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -16551,7 +16551,7 @@
         <v>9</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>9</v>
@@ -16583,7 +16583,7 @@
         <v>13</v>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>13</v>
@@ -16615,7 +16615,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -16647,7 +16647,7 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -16679,7 +16679,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -16711,7 +16711,7 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>17</v>
@@ -16743,7 +16743,7 @@
         <v>6</v>
       </c>
       <c r="E35">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G35">
         <v>6</v>
@@ -16775,7 +16775,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -16807,7 +16807,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -16839,7 +16839,7 @@
         <v>6</v>
       </c>
       <c r="E38">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G38">
         <v>6</v>
@@ -16871,7 +16871,7 @@
         <v>12</v>
       </c>
       <c r="E39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>8</v>
@@ -16903,7 +16903,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -16935,7 +16935,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -16967,7 +16967,7 @@
         <v>10</v>
       </c>
       <c r="E42">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="G42">
         <v>10</v>
@@ -16999,7 +16999,7 @@
         <v>6</v>
       </c>
       <c r="E43">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G43">
         <v>6</v>
@@ -17031,7 +17031,7 @@
         <v>7</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G44">
         <v>7</v>
@@ -17063,7 +17063,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -17095,7 +17095,7 @@
         <v>5</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -17127,7 +17127,7 @@
         <v>18</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G47">
         <v>15</v>
@@ -17159,7 +17159,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -17191,7 +17191,7 @@
         <v>11</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G49">
         <v>9</v>
@@ -17223,7 +17223,7 @@
         <v>22</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G50">
         <v>22</v>
@@ -17255,7 +17255,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -17287,7 +17287,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -17364,7 +17364,7 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -17396,7 +17396,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -17428,7 +17428,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -17460,7 +17460,7 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -17492,7 +17492,7 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -17524,7 +17524,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -17556,7 +17556,7 @@
         <v>12</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -17588,7 +17588,7 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -17620,7 +17620,7 @@
         <v>7</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -17652,7 +17652,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -17684,7 +17684,7 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -17716,7 +17716,7 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -17748,7 +17748,7 @@
         <v>19</v>
       </c>
       <c r="E14">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -17780,7 +17780,7 @@
         <v>8</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -17812,7 +17812,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -17844,7 +17844,7 @@
         <v>16</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -17876,7 +17876,7 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -17908,7 +17908,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -17972,7 +17972,7 @@
         <v>18</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>23</v>
@@ -18004,7 +18004,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -18036,7 +18036,7 @@
         <v>8</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -18068,7 +18068,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -18100,7 +18100,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -18132,7 +18132,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -18164,7 +18164,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -18196,7 +18196,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -18228,7 +18228,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -18260,7 +18260,7 @@
         <v>9</v>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>11</v>
@@ -18292,7 +18292,7 @@
         <v>16</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -18324,7 +18324,7 @@
         <v>8</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -18356,7 +18356,7 @@
         <v>22</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -18388,7 +18388,7 @@
         <v>19</v>
       </c>
       <c r="E34">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>16</v>
@@ -18420,7 +18420,7 @@
         <v>6</v>
       </c>
       <c r="E35">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -18452,7 +18452,7 @@
         <v>8</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -18484,7 +18484,7 @@
         <v>3</v>
       </c>
       <c r="E37">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -18516,7 +18516,7 @@
         <v>5</v>
       </c>
       <c r="E38">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -18548,7 +18548,7 @@
         <v>10</v>
       </c>
       <c r="E39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>5</v>
@@ -18580,7 +18580,7 @@
         <v>13</v>
       </c>
       <c r="E40">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -18612,7 +18612,7 @@
         <v>8</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -18644,7 +18644,7 @@
         <v>9</v>
       </c>
       <c r="E42">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -18676,7 +18676,7 @@
         <v>4</v>
       </c>
       <c r="E43">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G43">
         <v>5</v>
@@ -18708,7 +18708,7 @@
         <v>16</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G44">
         <v>6</v>
@@ -18740,7 +18740,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -18772,7 +18772,7 @@
         <v>17</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -18804,7 +18804,7 @@
         <v>4</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G47">
         <v>5</v>
@@ -18836,7 +18836,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -18868,7 +18868,7 @@
         <v>4</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -18900,7 +18900,7 @@
         <v>16</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G50">
         <v>22</v>
@@ -18932,7 +18932,7 @@
         <v>22</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G51">
         <v>8</v>
@@ -18964,7 +18964,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -19041,7 +19041,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -19073,7 +19073,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -19105,7 +19105,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -19137,7 +19137,7 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>46</v>
@@ -19169,7 +19169,7 @@
         <v>35</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>48</v>
@@ -19201,7 +19201,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>24</v>
@@ -19233,7 +19233,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -19265,7 +19265,7 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>25</v>
@@ -19297,7 +19297,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -19329,7 +19329,7 @@
         <v>19</v>
       </c>
       <c r="E11">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="G11">
         <v>8</v>
@@ -19361,7 +19361,7 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>14</v>
@@ -19393,7 +19393,7 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>14</v>
@@ -19425,7 +19425,7 @@
         <v>14</v>
       </c>
       <c r="E14">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>32</v>
@@ -19457,7 +19457,7 @@
         <v>8</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="G15">
         <v>32</v>
@@ -19489,7 +19489,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -19521,7 +19521,7 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>47</v>
@@ -19553,7 +19553,7 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>25</v>
@@ -19585,7 +19585,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>17</v>
@@ -19649,7 +19649,7 @@
         <v>14</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>31</v>
@@ -19681,7 +19681,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>15</v>
@@ -19713,7 +19713,7 @@
         <v>4</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>14</v>
@@ -19745,7 +19745,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>45</v>
@@ -19777,7 +19777,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -19809,7 +19809,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>7</v>
@@ -19841,7 +19841,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>16</v>
@@ -19873,7 +19873,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G28">
         <v>14</v>
@@ -19905,7 +19905,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>31</v>
@@ -19937,7 +19937,7 @@
         <v>4</v>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -19969,7 +19969,7 @@
         <v>16</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>48</v>
@@ -20001,7 +20001,7 @@
         <v>8</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>30</v>
@@ -20033,7 +20033,7 @@
         <v>22</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>55</v>
@@ -20065,7 +20065,7 @@
         <v>19</v>
       </c>
       <c r="E34">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>51</v>
@@ -20097,7 +20097,7 @@
         <v>6</v>
       </c>
       <c r="E35">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G35">
         <v>15</v>
@@ -20129,7 +20129,7 @@
         <v>8</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G36">
         <v>24</v>
@@ -20161,7 +20161,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>16</v>
@@ -20193,7 +20193,7 @@
         <v>5</v>
       </c>
       <c r="E38">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G38">
         <v>15</v>
@@ -20225,7 +20225,7 @@
         <v>10</v>
       </c>
       <c r="E39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>21</v>
@@ -20257,7 +20257,7 @@
         <v>13</v>
       </c>
       <c r="E40">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G40">
         <v>37</v>
@@ -20289,7 +20289,7 @@
         <v>8</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G41">
         <v>25</v>
@@ -20321,7 +20321,7 @@
         <v>5</v>
       </c>
       <c r="E42">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="G42">
         <v>14</v>
@@ -20353,7 +20353,7 @@
         <v>4</v>
       </c>
       <c r="E43">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G43">
         <v>14</v>
@@ -20385,7 +20385,7 @@
         <v>5</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G44">
         <v>15</v>
@@ -20417,7 +20417,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G45">
         <v>14</v>
@@ -20449,7 +20449,7 @@
         <v>14</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G46">
         <v>31</v>
@@ -20481,7 +20481,7 @@
         <v>4</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G47">
         <v>14</v>
@@ -20513,7 +20513,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G48">
         <v>24</v>
@@ -20545,7 +20545,7 @@
         <v>4</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G49">
         <v>14</v>
@@ -20577,7 +20577,7 @@
         <v>13</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G50">
         <v>44</v>
@@ -20609,7 +20609,7 @@
         <v>42</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G51">
         <v>66</v>
@@ -20641,7 +20641,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G52">
         <v>17</v>
@@ -20709,16 +20709,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>9</v>
@@ -20750,7 +20750,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -20773,16 +20773,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>22</v>
@@ -20814,7 +20814,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -20846,7 +20846,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -20878,7 +20878,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -20910,7 +20910,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -20942,7 +20942,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -20974,7 +20974,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -20997,16 +20997,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="C11">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E11">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="G11">
         <v>195</v>
@@ -21038,7 +21038,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -21070,7 +21070,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -21102,7 +21102,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -21134,7 +21134,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -21166,7 +21166,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -21198,7 +21198,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -21230,7 +21230,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -21253,16 +21253,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>6</v>
@@ -21317,16 +21317,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>181</v>
@@ -21349,16 +21349,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>95</v>
@@ -21390,7 +21390,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -21422,7 +21422,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>117</v>
@@ -21454,7 +21454,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -21477,16 +21477,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>27</v>
@@ -21518,7 +21518,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -21550,7 +21550,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -21573,16 +21573,16 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>34</v>
@@ -21614,7 +21614,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -21637,16 +21637,16 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>26</v>
@@ -21669,16 +21669,16 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>8</v>
@@ -21701,16 +21701,16 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>23</v>
@@ -21733,16 +21733,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C34">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D34">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E34">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>175</v>
@@ -21774,7 +21774,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -21806,7 +21806,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -21838,7 +21838,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -21870,7 +21870,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -21893,16 +21893,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
         <v>17</v>
       </c>
-      <c r="D39">
-        <v>40</v>
-      </c>
       <c r="E39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>169</v>
@@ -21925,16 +21925,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C40">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D40">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E40">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G40">
         <v>24</v>
@@ -21966,7 +21966,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -21998,7 +21998,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -22030,7 +22030,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -22062,7 +22062,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -22094,7 +22094,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -22126,7 +22126,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -22149,16 +22149,16 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C47">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D47">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G47">
         <v>169</v>
@@ -22181,16 +22181,16 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G48">
         <v>4</v>
@@ -22213,16 +22213,16 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
         <v>15</v>
       </c>
-      <c r="D49">
-        <v>37</v>
-      </c>
       <c r="E49">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G49">
         <v>165</v>
@@ -22245,16 +22245,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C50">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D50">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G50">
         <v>181</v>
@@ -22286,7 +22286,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -22309,16 +22309,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G52">
         <v>8</v>
@@ -22386,16 +22386,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>9</v>
@@ -22427,7 +22427,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -22450,16 +22450,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>22</v>
@@ -22491,7 +22491,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -22523,7 +22523,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -22555,7 +22555,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -22587,7 +22587,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -22619,7 +22619,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -22651,7 +22651,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -22674,16 +22674,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="G11">
         <v>195</v>
@@ -22715,7 +22715,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -22747,7 +22747,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -22779,7 +22779,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -22811,7 +22811,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -22843,7 +22843,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -22875,7 +22875,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -22907,7 +22907,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -22930,16 +22930,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>6</v>
@@ -22994,16 +22994,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D21">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>181</v>
@@ -23026,16 +23026,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>95</v>
@@ -23067,7 +23067,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -23099,7 +23099,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>117</v>
@@ -23131,7 +23131,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -23154,16 +23154,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>27</v>
@@ -23195,7 +23195,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -23227,7 +23227,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -23250,16 +23250,16 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>34</v>
@@ -23291,7 +23291,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -23314,16 +23314,16 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>26</v>
@@ -23346,16 +23346,16 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>8</v>
@@ -23378,16 +23378,16 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>23</v>
@@ -23410,16 +23410,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C34">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D34">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E34">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>175</v>
@@ -23451,7 +23451,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -23483,7 +23483,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -23515,7 +23515,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -23547,7 +23547,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -23570,16 +23570,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C39">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D39">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>169</v>
@@ -23602,16 +23602,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C40">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D40">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E40">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G40">
         <v>24</v>
@@ -23643,7 +23643,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -23675,7 +23675,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -23707,7 +23707,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -23739,7 +23739,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -23771,7 +23771,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -23803,7 +23803,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -23826,16 +23826,16 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C47">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D47">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G47">
         <v>169</v>
@@ -23858,16 +23858,16 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G48">
         <v>4</v>
@@ -23890,16 +23890,16 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C49">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D49">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G49">
         <v>165</v>
@@ -23922,16 +23922,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C50">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D50">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G50">
         <v>181</v>
@@ -23963,7 +23963,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -23986,16 +23986,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G52">
         <v>8</v>
@@ -24072,7 +24072,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -24104,7 +24104,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -24136,7 +24136,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -24168,7 +24168,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -24191,16 +24191,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>43</v>
@@ -24232,7 +24232,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -24264,7 +24264,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -24296,7 +24296,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -24328,7 +24328,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -24360,7 +24360,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -24392,7 +24392,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -24424,7 +24424,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -24456,7 +24456,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -24488,7 +24488,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -24520,7 +24520,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -24552,7 +24552,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -24584,7 +24584,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -24616,7 +24616,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -24671,16 +24671,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>17</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>17</v>
@@ -24712,7 +24712,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -24744,7 +24744,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -24776,7 +24776,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -24808,7 +24808,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -24840,7 +24840,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -24872,7 +24872,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -24904,7 +24904,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -24936,7 +24936,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -24968,7 +24968,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -25000,7 +25000,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -25032,7 +25032,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -25064,7 +25064,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -25087,16 +25087,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C34">
         <v>12</v>
       </c>
       <c r="D34">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E34">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>17</v>
@@ -25128,7 +25128,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -25160,7 +25160,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -25192,7 +25192,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -25224,7 +25224,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -25247,16 +25247,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39">
         <v>4</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -25288,7 +25288,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -25320,7 +25320,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -25352,7 +25352,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -25384,7 +25384,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -25416,7 +25416,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -25448,7 +25448,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -25480,7 +25480,7 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -25503,16 +25503,16 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -25544,7 +25544,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -25567,16 +25567,16 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -25599,16 +25599,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C50">
         <v>14</v>
       </c>
       <c r="D50">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G50">
         <v>16</v>
@@ -25640,7 +25640,7 @@
         <v>31</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G51">
         <v>42</v>
@@ -25672,7 +25672,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G52">
         <v>2</v>

--- a/experiment_results/worst_case/ExamDB/2wise/0.8_worst_case.xlsx
+++ b/experiment_results/worst_case/ExamDB/2wise/0.8_worst_case.xlsx
@@ -22,13 +22,15 @@
     <sheet name="rogot1" sheetId="13" r:id="rId13"/>
     <sheet name="geometric_mean" sheetId="14" r:id="rId14"/>
     <sheet name="m2" sheetId="15" r:id="rId15"/>
+    <sheet name="wong1" sheetId="16" r:id="rId16"/>
+    <sheet name="sokal" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="61">
   <si>
     <t>MUTATED_PROJECT</t>
   </si>
@@ -5904,13 +5906,13 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>56</v>
@@ -6224,13 +6226,13 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C21">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E21">
         <v>43</v>
@@ -6640,13 +6642,13 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C34">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D34">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>34</v>
@@ -6800,13 +6802,13 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C39">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D39">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>39</v>
@@ -7056,13 +7058,13 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C47">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D47">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E47">
         <v>46</v>
@@ -7120,13 +7122,13 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C49">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D49">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>39</v>
@@ -7152,13 +7154,13 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C50">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D50">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E50">
         <v>35</v>
@@ -12279,6 +12281,3360 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>57</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>220</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>99</v>
+      </c>
+      <c r="L2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>28</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>220</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>99</v>
+      </c>
+      <c r="L3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>220</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>136</v>
+      </c>
+      <c r="L4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>43</v>
+      </c>
+      <c r="G5">
+        <v>46</v>
+      </c>
+      <c r="H5">
+        <v>220</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>133</v>
+      </c>
+      <c r="L5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>48</v>
+      </c>
+      <c r="H6">
+        <v>220</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>183</v>
+      </c>
+      <c r="L6">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>43</v>
+      </c>
+      <c r="G7">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>220</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>183</v>
+      </c>
+      <c r="L7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>41</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>220</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>183</v>
+      </c>
+      <c r="L8">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>45</v>
+      </c>
+      <c r="G9">
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <v>220</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>133</v>
+      </c>
+      <c r="L9">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>43</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>220</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>183</v>
+      </c>
+      <c r="L10">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>56</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>220</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>99</v>
+      </c>
+      <c r="L11">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <v>220</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>133</v>
+      </c>
+      <c r="L12">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>14</v>
+      </c>
+      <c r="H13">
+        <v>220</v>
+      </c>
+      <c r="J13">
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <v>133</v>
+      </c>
+      <c r="L13">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>43</v>
+      </c>
+      <c r="G14">
+        <v>32</v>
+      </c>
+      <c r="H14">
+        <v>220</v>
+      </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>183</v>
+      </c>
+      <c r="L14">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>41</v>
+      </c>
+      <c r="G15">
+        <v>32</v>
+      </c>
+      <c r="H15">
+        <v>220</v>
+      </c>
+      <c r="J15">
+        <v>7</v>
+      </c>
+      <c r="K15">
+        <v>133</v>
+      </c>
+      <c r="L15">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>220</v>
+      </c>
+      <c r="J16">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>133</v>
+      </c>
+      <c r="L16">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>35</v>
+      </c>
+      <c r="G17">
+        <v>47</v>
+      </c>
+      <c r="H17">
+        <v>220</v>
+      </c>
+      <c r="J17">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>183</v>
+      </c>
+      <c r="L17">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>43</v>
+      </c>
+      <c r="G18">
+        <v>25</v>
+      </c>
+      <c r="H18">
+        <v>220</v>
+      </c>
+      <c r="J18">
+        <v>9</v>
+      </c>
+      <c r="K18">
+        <v>183</v>
+      </c>
+      <c r="L18">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>39</v>
+      </c>
+      <c r="G19">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>220</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+      <c r="K19">
+        <v>115</v>
+      </c>
+      <c r="L19">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-1</v>
+      </c>
+      <c r="C20">
+        <v>-1</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>220</v>
+      </c>
+      <c r="J20">
+        <v>11</v>
+      </c>
+      <c r="K20">
+        <v>220</v>
+      </c>
+      <c r="L20">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>43</v>
+      </c>
+      <c r="G21">
+        <v>31</v>
+      </c>
+      <c r="H21">
+        <v>220</v>
+      </c>
+      <c r="J21">
+        <v>9</v>
+      </c>
+      <c r="K21">
+        <v>183</v>
+      </c>
+      <c r="L21">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>32</v>
+      </c>
+      <c r="G22">
+        <v>15</v>
+      </c>
+      <c r="H22">
+        <v>220</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>96</v>
+      </c>
+      <c r="L22">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>33</v>
+      </c>
+      <c r="G23">
+        <v>14</v>
+      </c>
+      <c r="H23">
+        <v>220</v>
+      </c>
+      <c r="J23">
+        <v>7</v>
+      </c>
+      <c r="K23">
+        <v>133</v>
+      </c>
+      <c r="L23">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-1</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+      <c r="D24">
+        <v>-1</v>
+      </c>
+      <c r="E24">
+        <v>29</v>
+      </c>
+      <c r="G24">
+        <v>45</v>
+      </c>
+      <c r="H24">
+        <v>220</v>
+      </c>
+      <c r="J24">
+        <v>9</v>
+      </c>
+      <c r="K24">
+        <v>183</v>
+      </c>
+      <c r="L24">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>39</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>220</v>
+      </c>
+      <c r="J25">
+        <v>7</v>
+      </c>
+      <c r="K25">
+        <v>133</v>
+      </c>
+      <c r="L25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>45</v>
+      </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="H26">
+        <v>220</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>96</v>
+      </c>
+      <c r="L26">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>12</v>
+      </c>
+      <c r="G27">
+        <v>16</v>
+      </c>
+      <c r="H27">
+        <v>220</v>
+      </c>
+      <c r="J27">
+        <v>7</v>
+      </c>
+      <c r="K27">
+        <v>115</v>
+      </c>
+      <c r="L27">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>26</v>
+      </c>
+      <c r="G28">
+        <v>14</v>
+      </c>
+      <c r="H28">
+        <v>220</v>
+      </c>
+      <c r="J28">
+        <v>9</v>
+      </c>
+      <c r="K28">
+        <v>183</v>
+      </c>
+      <c r="L28">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>22</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>43</v>
+      </c>
+      <c r="G29">
+        <v>31</v>
+      </c>
+      <c r="H29">
+        <v>220</v>
+      </c>
+      <c r="J29">
+        <v>7</v>
+      </c>
+      <c r="K29">
+        <v>133</v>
+      </c>
+      <c r="L29">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>39</v>
+      </c>
+      <c r="G30">
+        <v>14</v>
+      </c>
+      <c r="H30">
+        <v>220</v>
+      </c>
+      <c r="J30">
+        <v>9</v>
+      </c>
+      <c r="K30">
+        <v>183</v>
+      </c>
+      <c r="L30">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>16</v>
+      </c>
+      <c r="D31">
+        <v>16</v>
+      </c>
+      <c r="E31">
+        <v>35</v>
+      </c>
+      <c r="G31">
+        <v>48</v>
+      </c>
+      <c r="H31">
+        <v>220</v>
+      </c>
+      <c r="J31">
+        <v>9</v>
+      </c>
+      <c r="K31">
+        <v>183</v>
+      </c>
+      <c r="L31">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>42</v>
+      </c>
+      <c r="G32">
+        <v>30</v>
+      </c>
+      <c r="H32">
+        <v>220</v>
+      </c>
+      <c r="J32">
+        <v>7</v>
+      </c>
+      <c r="K32">
+        <v>133</v>
+      </c>
+      <c r="L32">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>35</v>
+      </c>
+      <c r="C33">
+        <v>22</v>
+      </c>
+      <c r="D33">
+        <v>22</v>
+      </c>
+      <c r="E33">
+        <v>35</v>
+      </c>
+      <c r="G33">
+        <v>55</v>
+      </c>
+      <c r="H33">
+        <v>220</v>
+      </c>
+      <c r="J33">
+        <v>7</v>
+      </c>
+      <c r="K33">
+        <v>133</v>
+      </c>
+      <c r="L33">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>19</v>
+      </c>
+      <c r="D34">
+        <v>19</v>
+      </c>
+      <c r="E34">
+        <v>34</v>
+      </c>
+      <c r="G34">
+        <v>51</v>
+      </c>
+      <c r="H34">
+        <v>220</v>
+      </c>
+      <c r="J34">
+        <v>9</v>
+      </c>
+      <c r="K34">
+        <v>183</v>
+      </c>
+      <c r="L34">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>46</v>
+      </c>
+      <c r="G35">
+        <v>15</v>
+      </c>
+      <c r="H35">
+        <v>220</v>
+      </c>
+      <c r="J35">
+        <v>7</v>
+      </c>
+      <c r="K35">
+        <v>133</v>
+      </c>
+      <c r="L35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>17</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>46</v>
+      </c>
+      <c r="G36">
+        <v>24</v>
+      </c>
+      <c r="H36">
+        <v>220</v>
+      </c>
+      <c r="J36">
+        <v>7</v>
+      </c>
+      <c r="K36">
+        <v>133</v>
+      </c>
+      <c r="L36">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>11</v>
+      </c>
+      <c r="G37">
+        <v>16</v>
+      </c>
+      <c r="H37">
+        <v>220</v>
+      </c>
+      <c r="J37">
+        <v>6</v>
+      </c>
+      <c r="K37">
+        <v>136</v>
+      </c>
+      <c r="L37">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>45</v>
+      </c>
+      <c r="G38">
+        <v>15</v>
+      </c>
+      <c r="H38">
+        <v>220</v>
+      </c>
+      <c r="J38">
+        <v>7</v>
+      </c>
+      <c r="K38">
+        <v>133</v>
+      </c>
+      <c r="L38">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>16</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>39</v>
+      </c>
+      <c r="G39">
+        <v>21</v>
+      </c>
+      <c r="H39">
+        <v>220</v>
+      </c>
+      <c r="J39">
+        <v>9</v>
+      </c>
+      <c r="K39">
+        <v>183</v>
+      </c>
+      <c r="L39">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>27</v>
+      </c>
+      <c r="C40">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>13</v>
+      </c>
+      <c r="E40">
+        <v>27</v>
+      </c>
+      <c r="G40">
+        <v>37</v>
+      </c>
+      <c r="H40">
+        <v>220</v>
+      </c>
+      <c r="J40">
+        <v>7</v>
+      </c>
+      <c r="K40">
+        <v>133</v>
+      </c>
+      <c r="L40">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>17</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>46</v>
+      </c>
+      <c r="G41">
+        <v>25</v>
+      </c>
+      <c r="H41">
+        <v>220</v>
+      </c>
+      <c r="J41">
+        <v>7</v>
+      </c>
+      <c r="K41">
+        <v>133</v>
+      </c>
+      <c r="L41">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>32</v>
+      </c>
+      <c r="G42">
+        <v>14</v>
+      </c>
+      <c r="H42">
+        <v>220</v>
+      </c>
+      <c r="J42">
+        <v>7</v>
+      </c>
+      <c r="K42">
+        <v>133</v>
+      </c>
+      <c r="L42">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>31</v>
+      </c>
+      <c r="G43">
+        <v>14</v>
+      </c>
+      <c r="H43">
+        <v>220</v>
+      </c>
+      <c r="J43">
+        <v>9</v>
+      </c>
+      <c r="K43">
+        <v>183</v>
+      </c>
+      <c r="L43">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>38</v>
+      </c>
+      <c r="G44">
+        <v>15</v>
+      </c>
+      <c r="H44">
+        <v>220</v>
+      </c>
+      <c r="J44">
+        <v>9</v>
+      </c>
+      <c r="K44">
+        <v>183</v>
+      </c>
+      <c r="L44">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>15</v>
+      </c>
+      <c r="G45">
+        <v>14</v>
+      </c>
+      <c r="H45">
+        <v>220</v>
+      </c>
+      <c r="J45">
+        <v>7</v>
+      </c>
+      <c r="K45">
+        <v>133</v>
+      </c>
+      <c r="L45">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>22</v>
+      </c>
+      <c r="C46">
+        <v>13</v>
+      </c>
+      <c r="D46">
+        <v>14</v>
+      </c>
+      <c r="E46">
+        <v>42</v>
+      </c>
+      <c r="G46">
+        <v>31</v>
+      </c>
+      <c r="H46">
+        <v>220</v>
+      </c>
+      <c r="J46">
+        <v>9</v>
+      </c>
+      <c r="K46">
+        <v>183</v>
+      </c>
+      <c r="L46">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>46</v>
+      </c>
+      <c r="G47">
+        <v>14</v>
+      </c>
+      <c r="H47">
+        <v>220</v>
+      </c>
+      <c r="J47">
+        <v>9</v>
+      </c>
+      <c r="K47">
+        <v>183</v>
+      </c>
+      <c r="L47">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>10</v>
+      </c>
+      <c r="G48">
+        <v>24</v>
+      </c>
+      <c r="H48">
+        <v>220</v>
+      </c>
+      <c r="J48">
+        <v>7</v>
+      </c>
+      <c r="K48">
+        <v>133</v>
+      </c>
+      <c r="L48">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>39</v>
+      </c>
+      <c r="G49">
+        <v>14</v>
+      </c>
+      <c r="H49">
+        <v>220</v>
+      </c>
+      <c r="J49">
+        <v>9</v>
+      </c>
+      <c r="K49">
+        <v>183</v>
+      </c>
+      <c r="L49">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>28</v>
+      </c>
+      <c r="C50">
+        <v>13</v>
+      </c>
+      <c r="D50">
+        <v>13</v>
+      </c>
+      <c r="E50">
+        <v>35</v>
+      </c>
+      <c r="G50">
+        <v>44</v>
+      </c>
+      <c r="H50">
+        <v>220</v>
+      </c>
+      <c r="J50">
+        <v>9</v>
+      </c>
+      <c r="K50">
+        <v>183</v>
+      </c>
+      <c r="L50">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>42</v>
+      </c>
+      <c r="C51">
+        <v>33</v>
+      </c>
+      <c r="D51">
+        <v>42</v>
+      </c>
+      <c r="E51">
+        <v>42</v>
+      </c>
+      <c r="G51">
+        <v>66</v>
+      </c>
+      <c r="H51">
+        <v>220</v>
+      </c>
+      <c r="J51">
+        <v>7</v>
+      </c>
+      <c r="K51">
+        <v>133</v>
+      </c>
+      <c r="L51">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <v>17</v>
+      </c>
+      <c r="H52">
+        <v>220</v>
+      </c>
+      <c r="J52">
+        <v>7</v>
+      </c>
+      <c r="K52">
+        <v>133</v>
+      </c>
+      <c r="L52">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>57</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>220</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>14</v>
+      </c>
+      <c r="L2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>28</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>220</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>14</v>
+      </c>
+      <c r="L3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>220</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>119</v>
+      </c>
+      <c r="L4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>43</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>220</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>37</v>
+      </c>
+      <c r="L5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>220</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>31</v>
+      </c>
+      <c r="L6">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>43</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>220</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>31</v>
+      </c>
+      <c r="L7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>41</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>220</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>31</v>
+      </c>
+      <c r="L8">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>45</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>220</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>37</v>
+      </c>
+      <c r="L9">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>43</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>220</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>31</v>
+      </c>
+      <c r="L10">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>56</v>
+      </c>
+      <c r="G11">
+        <v>195</v>
+      </c>
+      <c r="H11">
+        <v>220</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>14</v>
+      </c>
+      <c r="L11">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>220</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>37</v>
+      </c>
+      <c r="L12">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>220</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>37</v>
+      </c>
+      <c r="L13">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>43</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>220</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>31</v>
+      </c>
+      <c r="L14">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>41</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>220</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>37</v>
+      </c>
+      <c r="L15">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>220</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>37</v>
+      </c>
+      <c r="L16">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>35</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>220</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>31</v>
+      </c>
+      <c r="L17">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>43</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>220</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>31</v>
+      </c>
+      <c r="L18">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>39</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>220</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-1</v>
+      </c>
+      <c r="C20">
+        <v>-1</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>220</v>
+      </c>
+      <c r="J20">
+        <v>11</v>
+      </c>
+      <c r="K20">
+        <v>220</v>
+      </c>
+      <c r="L20">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>31</v>
+      </c>
+      <c r="E21">
+        <v>43</v>
+      </c>
+      <c r="G21">
+        <v>181</v>
+      </c>
+      <c r="H21">
+        <v>220</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>31</v>
+      </c>
+      <c r="L21">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>32</v>
+      </c>
+      <c r="G22">
+        <v>95</v>
+      </c>
+      <c r="H22">
+        <v>220</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>48</v>
+      </c>
+      <c r="L22">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>33</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>220</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>37</v>
+      </c>
+      <c r="L23">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-1</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+      <c r="D24">
+        <v>-1</v>
+      </c>
+      <c r="E24">
+        <v>29</v>
+      </c>
+      <c r="G24">
+        <v>117</v>
+      </c>
+      <c r="H24">
+        <v>220</v>
+      </c>
+      <c r="J24">
+        <v>7</v>
+      </c>
+      <c r="K24">
+        <v>135</v>
+      </c>
+      <c r="L24">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>39</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>220</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>37</v>
+      </c>
+      <c r="L25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>45</v>
+      </c>
+      <c r="G26">
+        <v>27</v>
+      </c>
+      <c r="H26">
+        <v>220</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>11</v>
+      </c>
+      <c r="L26">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>12</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+      <c r="H27">
+        <v>220</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="L27">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>26</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>220</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>31</v>
+      </c>
+      <c r="L28">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>14</v>
+      </c>
+      <c r="E29">
+        <v>43</v>
+      </c>
+      <c r="G29">
+        <v>34</v>
+      </c>
+      <c r="H29">
+        <v>220</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>37</v>
+      </c>
+      <c r="L29">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>39</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>220</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>31</v>
+      </c>
+      <c r="L30">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>35</v>
+      </c>
+      <c r="G31">
+        <v>26</v>
+      </c>
+      <c r="H31">
+        <v>220</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>31</v>
+      </c>
+      <c r="L31">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>42</v>
+      </c>
+      <c r="G32">
+        <v>8</v>
+      </c>
+      <c r="H32">
+        <v>220</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>37</v>
+      </c>
+      <c r="L32">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>35</v>
+      </c>
+      <c r="G33">
+        <v>23</v>
+      </c>
+      <c r="H33">
+        <v>220</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>37</v>
+      </c>
+      <c r="L33">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>17</v>
+      </c>
+      <c r="C34">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>17</v>
+      </c>
+      <c r="E34">
+        <v>34</v>
+      </c>
+      <c r="G34">
+        <v>175</v>
+      </c>
+      <c r="H34">
+        <v>220</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>31</v>
+      </c>
+      <c r="L34">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>46</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <v>220</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>37</v>
+      </c>
+      <c r="L35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>46</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>220</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>37</v>
+      </c>
+      <c r="L36">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>11</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>220</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+      <c r="K37">
+        <v>119</v>
+      </c>
+      <c r="L37">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>45</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>220</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>37</v>
+      </c>
+      <c r="L38">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>17</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>17</v>
+      </c>
+      <c r="E39">
+        <v>39</v>
+      </c>
+      <c r="G39">
+        <v>169</v>
+      </c>
+      <c r="H39">
+        <v>220</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>31</v>
+      </c>
+      <c r="L39">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>27</v>
+      </c>
+      <c r="G40">
+        <v>24</v>
+      </c>
+      <c r="H40">
+        <v>220</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>37</v>
+      </c>
+      <c r="L40">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>46</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>220</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>37</v>
+      </c>
+      <c r="L41">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>32</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>220</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>37</v>
+      </c>
+      <c r="L42">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>31</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>220</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>31</v>
+      </c>
+      <c r="L43">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>38</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="H44">
+        <v>220</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>31</v>
+      </c>
+      <c r="L44">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>15</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>220</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>37</v>
+      </c>
+      <c r="L45">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>42</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>220</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>31</v>
+      </c>
+      <c r="L46">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>26</v>
+      </c>
+      <c r="C47">
+        <v>15</v>
+      </c>
+      <c r="D47">
+        <v>26</v>
+      </c>
+      <c r="E47">
+        <v>46</v>
+      </c>
+      <c r="G47">
+        <v>169</v>
+      </c>
+      <c r="H47">
+        <v>220</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>31</v>
+      </c>
+      <c r="L47">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>10</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+      <c r="H48">
+        <v>220</v>
+      </c>
+      <c r="J48">
+        <v>4</v>
+      </c>
+      <c r="K48">
+        <v>79</v>
+      </c>
+      <c r="L48">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>15</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>15</v>
+      </c>
+      <c r="E49">
+        <v>39</v>
+      </c>
+      <c r="G49">
+        <v>165</v>
+      </c>
+      <c r="H49">
+        <v>220</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>31</v>
+      </c>
+      <c r="L49">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>23</v>
+      </c>
+      <c r="C50">
+        <v>14</v>
+      </c>
+      <c r="D50">
+        <v>23</v>
+      </c>
+      <c r="E50">
+        <v>35</v>
+      </c>
+      <c r="G50">
+        <v>181</v>
+      </c>
+      <c r="H50">
+        <v>220</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>31</v>
+      </c>
+      <c r="L50">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>42</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>220</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="K51">
+        <v>37</v>
+      </c>
+      <c r="L51">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <v>8</v>
+      </c>
+      <c r="H52">
+        <v>220</v>
+      </c>
+      <c r="J52">
+        <v>4</v>
+      </c>
+      <c r="K52">
+        <v>79</v>
+      </c>
+      <c r="L52">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L52"/>
@@ -17355,13 +20711,13 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>57</v>
@@ -17387,7 +20743,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -17419,7 +20775,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -17451,13 +20807,13 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>43</v>
@@ -17483,13 +20839,13 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>35</v>
@@ -17515,13 +20871,13 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>43</v>
@@ -17547,13 +20903,13 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>41</v>
@@ -17579,13 +20935,13 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>45</v>
@@ -17611,13 +20967,13 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>43</v>
@@ -17643,13 +20999,13 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>56</v>
@@ -17675,13 +21031,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>15</v>
@@ -17707,13 +21063,13 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>16</v>
@@ -17739,13 +21095,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>43</v>
@@ -17771,13 +21127,13 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>41</v>
@@ -17803,13 +21159,13 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>50</v>
@@ -17835,13 +21191,13 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>35</v>
@@ -17867,13 +21223,13 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>43</v>
@@ -17899,7 +21255,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -17963,13 +21319,13 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>43</v>
@@ -17995,13 +21351,13 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>32</v>
@@ -18027,13 +21383,13 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <v>33</v>
@@ -18091,13 +21447,13 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>39</v>
@@ -18123,13 +21479,13 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>45</v>
@@ -18155,13 +21511,13 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>12</v>
@@ -18187,7 +21543,7 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -18219,13 +21575,13 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <v>43</v>
@@ -18251,13 +21607,13 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E30">
         <v>39</v>
@@ -18283,13 +21639,13 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E31">
         <v>35</v>
@@ -18315,13 +21671,13 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <v>42</v>
@@ -18347,13 +21703,13 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D33">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E33">
         <v>35</v>
@@ -18379,13 +21735,13 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C34">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D34">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>34</v>
@@ -18411,13 +21767,13 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E35">
         <v>46</v>
@@ -18443,13 +21799,13 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <v>46</v>
@@ -18475,13 +21831,13 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>11</v>
@@ -18507,13 +21863,13 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E38">
         <v>45</v>
@@ -18539,13 +21895,13 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C39">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E39">
         <v>39</v>
@@ -18571,13 +21927,13 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C40">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D40">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E40">
         <v>27</v>
@@ -18603,13 +21959,13 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E41">
         <v>46</v>
@@ -18635,13 +21991,13 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E42">
         <v>32</v>
@@ -18667,13 +22023,13 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E43">
         <v>31</v>
@@ -18699,13 +22055,13 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D44">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E44">
         <v>38</v>
@@ -18731,13 +22087,13 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45">
         <v>15</v>
@@ -18763,13 +22119,13 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E46">
         <v>42</v>
@@ -18795,13 +22151,13 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E47">
         <v>46</v>
@@ -18827,13 +22183,13 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>10</v>
@@ -18859,13 +22215,13 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49">
         <v>39</v>
@@ -18891,13 +22247,13 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C50">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D50">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E50">
         <v>35</v>
@@ -18923,13 +22279,13 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C51">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D51">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E51">
         <v>42</v>
@@ -18955,7 +22311,7 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>1</v>
